--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="IncomeDetailsList" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="New_Application" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="177">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -364,6 +364,189 @@
   </si>
   <si>
     <t>document.querySelector("#seq\\#3 &gt; page-composer-parser &gt; ion-content &gt; ion-grid &gt; ion-row &gt; ion-col &gt; kub-wrapper &gt; ion-grid &gt; ion-row &gt; ion-col &gt; ion-card &gt; ion-card-content &gt; income &gt; ion-row.p-0.m-0.md.hydrated &gt; ion-col &gt; div &gt; ion-title &gt; button")</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>GoBack</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seq\\#1 &gt; page-composer-parser &gt; ion-content &gt; ion-grid &gt; ion-row &gt; ion-col &gt; digital-dynamic-form &gt; ion-grid &gt; ion-row &gt; ion-col &gt; ion-card &gt; ion-card-content &gt; form &gt; ion-grid:nth-child(1) &gt; ion-row:nth-child(2) &gt; ion-col.ng-star-inserted.md.hydrated &gt; button")</t>
+  </si>
+  <si>
+    <t>Savebutton</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-icon="pi pi-save"]')</t>
+  </si>
+  <si>
+    <t>Submitbutton</t>
+  </si>
+  <si>
+    <t>document.querySelector('[label="Submit"]')</t>
+  </si>
+  <si>
+    <t>Returnbutton</t>
+  </si>
+  <si>
+    <t>document.querySelector('[label="Return"]')</t>
+  </si>
+  <si>
+    <t>Viewsummary</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="View Summary"]')</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PRODUCT.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Subproduct</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.SCHEME_MST_SUBPRODUCTCODE."]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>TotalFinanceAmountRequested</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.TotalFinanc"]').parentElement.nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>DeclaredNetMonthlyIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.DeclaredNet"]').parentElement.nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>DeclaredCurrentObligations</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.DeclaredCur"]').parentElement.nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>Special Promotion/Campaign</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SpecialProm"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>SourcingChannel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingCha"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>BusinessCenterCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.BusinessCen"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>ServicingType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ServicingTy"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.Region.TOOL"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>ServicingBranch</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ServicingBr"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>SpokeLocation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Spoke Location.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>ClosingStaffOrServicingStaffOrRM</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ClosingStaf"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>TopupType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Topup Type.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>TopupApplicationNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Topup Application No.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>SourcingType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingTyp"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>SourcingOffice</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingOff"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>SourcingEntity</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingEnt"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>SourcingStaff</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingSta"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>ReferenceType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceTy"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>ReferenceEntity</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceEn"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>ReferenceCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceCo"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>SuccessSavePopup</t>
+  </si>
+  <si>
+    <t>backButton</t>
+  </si>
+  <si>
+    <t>document.querySelector("#menu-content &gt; app-tabs &gt; ion-content &gt; ion-tabs &gt; div.tabs-inner &gt; ion-router-outlet &gt; app-screen &gt; ion-content &gt; page-composer-parser &gt; ion-content &gt; ion-grid &gt; ion-row &gt; ion-card &gt; ion-toolbar &gt; ion-buttons.buttons-first-slot.sc-ion-buttons-ios-h.sc-ion-buttons-ios-s.ios.hydrated &gt; ion-button").shadowRoot.querySelector("button &gt; span")</t>
+  </si>
+  <si>
+    <t>document.querySelector("#toast-container &gt; div &gt; div.ng-tns-c144-25.toast-message.ng-star-inserted")</t>
+  </si>
+  <si>
+    <t>Product*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PRODUCT.TOOLTIP"]').innerText</t>
   </si>
 </sst>
 </file>
@@ -798,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1296,12 +1479,299 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="100.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>172</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="219">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -547,6 +547,132 @@
   </si>
   <si>
     <t>document.querySelector('ion-label[ng-reflect-text="SCR.PRODUCT.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>Subproduct*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.SCHEME_MST_SUBPRODUCTCODE."]').innerText</t>
+  </si>
+  <si>
+    <t>TotalFinanceAmountRequested*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.TotalFinanc"]').innerText</t>
+  </si>
+  <si>
+    <t>DeclaredNetMonthlyIncome*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.DeclaredNet"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.DeclaredCur"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SpecialProm"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingCha"]').innerText</t>
+  </si>
+  <si>
+    <t>SourcingChannel*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.BusinessCen"]').innerText</t>
+  </si>
+  <si>
+    <t>BusinessCenterCode*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ServicingTy"]').innerText</t>
+  </si>
+  <si>
+    <t>ServicingType*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.Region.TOOL"]').innerText</t>
+  </si>
+  <si>
+    <t>Region*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ServicingBr"]').innerText</t>
+  </si>
+  <si>
+    <t>ServicingBranch*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Spoke Location.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ClosingStaf"]').innerText</t>
+  </si>
+  <si>
+    <t>ClosingStaffOrServicingStaffOrRM*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Topup Type.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>TopupTypeCheckNonMan</t>
+  </si>
+  <si>
+    <t>SpokeLocationCheckNonMan</t>
+  </si>
+  <si>
+    <t>CheckNonManDeclaredCurrentObligations</t>
+  </si>
+  <si>
+    <t>SpecialPromotion/CampaignCheckNonMan</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Topup Application No.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingTyp"]').innerText</t>
+  </si>
+  <si>
+    <t>SourcingType*</t>
+  </si>
+  <si>
+    <t>ApplicationDetails.SourcingTyp</t>
+  </si>
+  <si>
+    <t>SourcingOffice*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingEnt"]').innerText</t>
+  </si>
+  <si>
+    <t>SourcingEntity*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingSta"]').innerText</t>
+  </si>
+  <si>
+    <t>SourcingStaff*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceTy"]').innerText</t>
+  </si>
+  <si>
+    <t>ReferenceTypeCheckNonMan</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceEn"]').innerText</t>
+  </si>
+  <si>
+    <t>ReferenceEntityCheckNonMan</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceCo"]').innerText</t>
+  </si>
+  <si>
+    <t>ReferenceCodeCheckNonMan</t>
+  </si>
+  <si>
+    <t>TopupApplicationNoCheckNonMan</t>
   </si>
 </sst>
 </file>
@@ -1479,15 +1605,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="100.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1771,7 +1897,176 @@
         <v>176</v>
       </c>
     </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="243">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -372,9 +372,6 @@
     <t>GoBack</t>
   </si>
   <si>
-    <t>document.querySelector("#seq\\#1 &gt; page-composer-parser &gt; ion-content &gt; ion-grid &gt; ion-row &gt; ion-col &gt; digital-dynamic-form &gt; ion-grid &gt; ion-row &gt; ion-col &gt; ion-card &gt; ion-card-content &gt; form &gt; ion-grid:nth-child(1) &gt; ion-row:nth-child(2) &gt; ion-col.ng-star-inserted.md.hydrated &gt; button")</t>
-  </si>
-  <si>
     <t>Savebutton</t>
   </si>
   <si>
@@ -486,9 +483,6 @@
     <t>TopupApplicationNo</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="Topup Application No.TOOLTIP"]').nextElementSibling</t>
-  </si>
-  <si>
     <t>SourcingType</t>
   </si>
   <si>
@@ -528,9 +522,6 @@
     <t>ReferenceCode</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceCo"]').nextElementSibling</t>
-  </si>
-  <si>
     <t>SuccessSavePopup</t>
   </si>
   <si>
@@ -636,9 +627,6 @@
     <t>SourcingType*</t>
   </si>
   <si>
-    <t>ApplicationDetails.SourcingTyp</t>
-  </si>
-  <si>
     <t>SourcingOffice*</t>
   </si>
   <si>
@@ -673,6 +661,90 @@
   </si>
   <si>
     <t>TopupApplicationNoCheckNonMan</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Topup Application No.TOOLTIP"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.SourcingOff"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.ReferenceCo"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="status tooltip"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]')</t>
+  </si>
+  <si>
+    <t>AddButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Add"]')</t>
+  </si>
+  <si>
+    <t>CustomerType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Customer Type.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="customerName"]').querySelector('ion-label').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>IdType</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ID Type.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>IdNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="idNumber"]').querySelector('ion-label').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-form-control-name-label="dateOfBirth"]').querySelector('ion-label').parentElement.nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>SearchButton</t>
+  </si>
+  <si>
+    <t>CreateNewbutton</t>
+  </si>
+  <si>
+    <t>PleaseFillDetailsPopup</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('div[class="toast-message"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('customer-search button[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[class=\"p-element p-button-info p-button-sm w-90 m-2 pull-right p-button p-component\"]')[2]</t>
+  </si>
+  <si>
+    <t>SelectDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[class$="p-highlight ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ApplicationDetails.TotalFinanc"]').parentElement.nextElementSibling.querySelector('input').ariaValueNow</t>
+  </si>
+  <si>
+    <t>CurrentValueInTotalFinanceAmountRequested</t>
   </si>
 </sst>
 </file>
@@ -1605,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1662,407 +1734,503 @@
         <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>118</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
         <v>119</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
         <v>121</v>
-      </c>
-      <c r="B8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
         <v>123</v>
-      </c>
-      <c r="B9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
         <v>125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
         <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
         <v>129</v>
-      </c>
-      <c r="B12" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
         <v>131</v>
-      </c>
-      <c r="B13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
         <v>133</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
         <v>135</v>
-      </c>
-      <c r="B15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
         <v>137</v>
-      </c>
-      <c r="B16" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
         <v>139</v>
-      </c>
-      <c r="B17" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
         <v>141</v>
-      </c>
-      <c r="B18" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
         <v>143</v>
-      </c>
-      <c r="B19" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" t="s">
         <v>145</v>
-      </c>
-      <c r="B20" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
         <v>147</v>
-      </c>
-      <c r="B21" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" t="s">
         <v>149</v>
-      </c>
-      <c r="B22" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s">
         <v>151</v>
-      </c>
-      <c r="B23" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s">
         <v>153</v>
-      </c>
-      <c r="B24" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" t="s">
         <v>171</v>
-      </c>
-      <c r="B33" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>225</v>
+      </c>
+      <c r="B60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>229</v>
+      </c>
+      <c r="B62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>234</v>
+      </c>
+      <c r="B65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="303">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -711,12 +711,6 @@
     <t>document.querySelector('digital-text-box[ng-reflect-name="idNumber"]').querySelector('ion-label').nextElementSibling.firstChild</t>
   </si>
   <si>
-    <t>DateOfBirth</t>
-  </si>
-  <si>
-    <t>document.querySelector('digital-prime-date[ng-reflect-form-control-name-label="dateOfBirth"]').querySelector('ion-label').parentElement.nextElementSibling.querySelector('input')</t>
-  </si>
-  <si>
     <t>SearchButton</t>
   </si>
   <si>
@@ -745,6 +739,192 @@
   </si>
   <si>
     <t>CurrentValueInTotalFinanceAmountRequested</t>
+  </si>
+  <si>
+    <t>Application_Detail_Customer_Search</t>
+  </si>
+  <si>
+    <t>MenuButton</t>
+  </si>
+  <si>
+    <t>document.querySelector("body &gt; app-root &gt; ion-app &gt; ion-router-outlet &gt; app-kub-menu &gt; ion-content &gt; ion-split-pane &gt; ion-menu &gt; ion-card-content &gt; ion-col &gt; div &gt; ion-button").shadowRoot.querySelector("button")</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("menu-list-accordian nav_link_try item md item-lines-none item-fill-none ion-focusable hydrated ion-activatable")[1]</t>
+  </si>
+  <si>
+    <t>ApplicationManager</t>
+  </si>
+  <si>
+    <t>document.querySelector("body &gt; app-root &gt; ion-app &gt; ion-router-outlet &gt; app-kub-menu &gt; ion-content &gt; ion-split-pane &gt; ion-menu &gt; ion-card-content &gt; div &gt; ul &gt; li:nth-child(3) &gt; ion-accordion-group &gt; ion-accordion.md.accordion-animated.hydrated.accordion-expanded &gt; ion-list &gt; ion-item &gt; ion-accordion-group &gt; ion-accordion &gt; ion-item &gt; ion-label")</t>
+  </si>
+  <si>
+    <t>ApplicationDetails</t>
+  </si>
+  <si>
+    <t>document.querySelector("body &gt; app-root &gt; ion-app &gt; ion-router-outlet &gt; app-kub-menu &gt; ion-content &gt; ion-split-pane &gt; ion-menu &gt; ion-card-content &gt; div &gt; ul &gt; li:nth-child(3) &gt; ion-accordion-group &gt; ion-accordion.md.accordion-animated.hydrated.accordion-expanded &gt; ion-list &gt; ion-item &gt; ion-accordion-group &gt; ion-accordion &gt; ion-list &gt; ion-item:nth-child(1) &gt; ion-buttons &gt; ion-button")</t>
+  </si>
+  <si>
+    <t>AddIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>SearchIcon</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[ng-reflect-text="Search"]')[1]</t>
+  </si>
+  <si>
+    <t>ClearIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Clear"]')</t>
+  </si>
+  <si>
+    <t>CIFID</t>
+  </si>
+  <si>
+    <t>IDType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="idType"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>IDNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="idNumber"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>CustomerTypeIndividual</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Customer Type.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>ApplicationNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-title="Customer Name"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="dateOfBirth"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>EmailID</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="emailId"]').querySelector('input')</t>
+  </si>
+  <si>
+    <t>DateofBirthClick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('digital-prime-date[ng-reflect-form-control-name-label="dateOfBirth"]').querySelector('ion-label').parentElement.nextElementSibling.querySelector('input') </t>
+  </si>
+  <si>
+    <t>DateofBirthSelect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.querySelector('span[class$="p-highlight ng-star-inserted"]') </t>
+  </si>
+  <si>
+    <t>CreateNewRequest</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('[class="p-element p-button-info p-button-sm w-90 m-2 pull-right p-button p-component"]')[2]</t>
+  </si>
+  <si>
+    <t>CustomerNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-title="Customer Name"]')</t>
+  </si>
+  <si>
+    <t>CustomerType*</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Customer Type.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="applicantType"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="cifId"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-title="Application Number"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="mobileNumber"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="cifId"] ion-input')</t>
+  </si>
+  <si>
+    <t>CIFIDGetValue</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="idNumber"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>IDNumbergetValue</t>
+  </si>
+  <si>
+    <t>MobileNumberNon*</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="mobileNumber"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="mobileNumber"] ion-input')</t>
+  </si>
+  <si>
+    <t>MobileNumberGetValue</t>
+  </si>
+  <si>
+    <t>DateofBirth*</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="dateOfBirth"]').innerText</t>
+  </si>
+  <si>
+    <t>EmailIDNon*</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="emailId"]').innerText</t>
+  </si>
+  <si>
+    <t>EmailIDGetValue</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="emailId"]').querySelector('ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Application Details"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Module name"]')</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>ScrollToInbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('[name="mail-unread-outline"]')</t>
   </si>
 </sst>
 </file>
@@ -772,12 +952,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -792,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -800,6 +992,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1677,23 +1871,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="100.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2190,47 +2384,300 @@
         <v>231</v>
       </c>
       <c r="B63" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" t="s">
         <v>234</v>
-      </c>
-      <c r="B65" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B66" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" t="s">
         <v>239</v>
       </c>
-      <c r="B67" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="3" t="s">
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>242</v>
       </c>
-      <c r="B68" t="s">
-        <v>241</v>
+      <c r="B70" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>252</v>
+      </c>
+      <c r="B75" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>254</v>
+      </c>
+      <c r="B76" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>256</v>
+      </c>
+      <c r="B78" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>259</v>
+      </c>
+      <c r="B80" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>261</v>
+      </c>
+      <c r="B81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>263</v>
+      </c>
+      <c r="B82" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>265</v>
+      </c>
+      <c r="B84" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>266</v>
+      </c>
+      <c r="B85" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>270</v>
+      </c>
+      <c r="B87" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>288</v>
+      </c>
+      <c r="B94" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>291</v>
+      </c>
+      <c r="B95" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>292</v>
+      </c>
+      <c r="B96" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>294</v>
+      </c>
+      <c r="B97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>296</v>
+      </c>
+      <c r="B98" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -675,9 +675,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>document.querySelector('ion-label[ng-reflect-text="status tooltip"]')</t>
-  </si>
-  <si>
     <t>document.querySelector('button[ng-reflect-text="Go Back"]')</t>
   </si>
   <si>
@@ -720,9 +717,6 @@
     <t>PleaseFillDetailsPopup</t>
   </si>
   <si>
-    <t>document.querySelector('ion-toast').shadowRoot.querySelector('div[class="toast-message"]').innerText</t>
-  </si>
-  <si>
     <t>document.querySelector('customer-search button[ng-reflect-text="Search"]')</t>
   </si>
   <si>
@@ -925,6 +919,12 @@
   </si>
   <si>
     <t>document.querySelector('[name="mail-unread-outline"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Status"')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('div[class="toast-message"]')</t>
   </si>
 </sst>
 </file>
@@ -1873,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1928,7 +1928,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2336,348 +2336,348 @@
         <v>218</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" t="s">
         <v>221</v>
-      </c>
-      <c r="B58" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59" t="s">
         <v>223</v>
-      </c>
-      <c r="B59" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>224</v>
+      </c>
+      <c r="B60" t="s">
         <v>225</v>
-      </c>
-      <c r="B60" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" t="s">
         <v>227</v>
-      </c>
-      <c r="B61" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" t="s">
         <v>229</v>
-      </c>
-      <c r="B62" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B63" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B67" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B76" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B77" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B78" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B80" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B82" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B83" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B84" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B87" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B88" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B91" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B92" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B93" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B95" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B97" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B98" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B100" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B101" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="305">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -375,9 +375,6 @@
     <t>Savebutton</t>
   </si>
   <si>
-    <t>document.querySelector('[ng-reflect-icon="pi pi-save"]')</t>
-  </si>
-  <si>
     <t>Submitbutton</t>
   </si>
   <si>
@@ -925,6 +922,15 @@
   </si>
   <si>
     <t>document.querySelector('ion-toast').shadowRoot.querySelector('div[class="toast-message"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-save"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-save"]').parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>Application Details Text</t>
   </si>
 </sst>
 </file>
@@ -1871,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1928,7 +1934,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1936,748 +1942,756 @@
         <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
         <v>122</v>
-      </c>
-      <c r="B9" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
         <v>124</v>
-      </c>
-      <c r="B10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" t="s">
         <v>126</v>
-      </c>
-      <c r="B11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
         <v>128</v>
-      </c>
-      <c r="B12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
         <v>130</v>
-      </c>
-      <c r="B13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s">
         <v>132</v>
-      </c>
-      <c r="B14" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
         <v>134</v>
-      </c>
-      <c r="B15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
         <v>136</v>
-      </c>
-      <c r="B16" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
         <v>138</v>
-      </c>
-      <c r="B17" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
         <v>140</v>
-      </c>
-      <c r="B18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" t="s">
         <v>142</v>
-      </c>
-      <c r="B19" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
         <v>144</v>
-      </c>
-      <c r="B20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
         <v>146</v>
-      </c>
-      <c r="B21" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
         <v>148</v>
-      </c>
-      <c r="B22" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s">
         <v>150</v>
-      </c>
-      <c r="B23" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" t="s">
         <v>152</v>
-      </c>
-      <c r="B24" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
         <v>155</v>
-      </c>
-      <c r="B26" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
         <v>157</v>
-      </c>
-      <c r="B27" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" t="s">
         <v>159</v>
-      </c>
-      <c r="B28" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
         <v>161</v>
-      </c>
-      <c r="B29" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s">
         <v>163</v>
-      </c>
-      <c r="B30" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" t="s">
         <v>165</v>
-      </c>
-      <c r="B31" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" t="s">
         <v>172</v>
-      </c>
-      <c r="B35" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" t="s">
         <v>174</v>
-      </c>
-      <c r="B36" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" t="s">
         <v>176</v>
-      </c>
-      <c r="B37" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" t="s">
         <v>178</v>
-      </c>
-      <c r="B38" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" t="s">
         <v>220</v>
-      </c>
-      <c r="B58" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" t="s">
         <v>222</v>
-      </c>
-      <c r="B59" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" t="s">
         <v>224</v>
-      </c>
-      <c r="B60" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" t="s">
         <v>226</v>
-      </c>
-      <c r="B61" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" t="s">
         <v>228</v>
-      </c>
-      <c r="B62" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" t="s">
         <v>235</v>
-      </c>
-      <c r="B66" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" t="s">
         <v>240</v>
-      </c>
-      <c r="B70" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" t="s">
         <v>242</v>
-      </c>
-      <c r="B71" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>245</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>247</v>
+      </c>
+      <c r="B74" t="s">
         <v>248</v>
-      </c>
-      <c r="B74" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>249</v>
+      </c>
+      <c r="B75" t="s">
         <v>250</v>
-      </c>
-      <c r="B75" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>251</v>
+      </c>
+      <c r="B76" t="s">
         <v>252</v>
-      </c>
-      <c r="B76" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B77" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B78" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" t="s">
         <v>255</v>
-      </c>
-      <c r="B79" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
+        <v>256</v>
+      </c>
+      <c r="B80" t="s">
         <v>257</v>
-      </c>
-      <c r="B80" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81" t="s">
         <v>259</v>
-      </c>
-      <c r="B81" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B82" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" t="s">
         <v>264</v>
-      </c>
-      <c r="B85" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>265</v>
+      </c>
+      <c r="B86" t="s">
         <v>266</v>
-      </c>
-      <c r="B86" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
+        <v>267</v>
+      </c>
+      <c r="B87" t="s">
         <v>268</v>
-      </c>
-      <c r="B87" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" t="s">
         <v>270</v>
-      </c>
-      <c r="B88" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>271</v>
+      </c>
+      <c r="B89" t="s">
         <v>272</v>
-      </c>
-      <c r="B89" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>273</v>
+      </c>
+      <c r="B90" t="s">
         <v>274</v>
-      </c>
-      <c r="B90" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>275</v>
+      </c>
+      <c r="B91" t="s">
         <v>276</v>
-      </c>
-      <c r="B91" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B92" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B93" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
+        <v>285</v>
+      </c>
+      <c r="B94" t="s">
         <v>286</v>
-      </c>
-      <c r="B94" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
+        <v>289</v>
+      </c>
+      <c r="B96" t="s">
         <v>290</v>
-      </c>
-      <c r="B96" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
+        <v>291</v>
+      </c>
+      <c r="B97" t="s">
         <v>292</v>
-      </c>
-      <c r="B97" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>293</v>
+      </c>
+      <c r="B98" t="s">
         <v>294</v>
-      </c>
-      <c r="B98" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B99" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B100" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" t="s">
         <v>299</v>
       </c>
-      <c r="B101" t="s">
-        <v>300</v>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>304</v>
+      </c>
+      <c r="B102" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="IncomeDetailsList" sheetId="2" r:id="rId2"/>
     <sheet name="New_Application" sheetId="3" r:id="rId3"/>
+    <sheet name="MurabAppDataEntryLivingExpenses" sheetId="6" r:id="rId4"/>
+    <sheet name="IjaraAppDataCheckQuationInfo" sheetId="7" r:id="rId5"/>
+    <sheet name="MubAppDaEnCustomerFinancials" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="408">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -931,13 +934,322 @@
   </si>
   <si>
     <t>Application Details Text</t>
+  </si>
+  <si>
+    <t>LOS</t>
+  </si>
+  <si>
+    <t>MessageBox</t>
+  </si>
+  <si>
+    <t>searchbox</t>
+  </si>
+  <si>
+    <t>searchinput</t>
+  </si>
+  <si>
+    <t>document.querySelector('#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt;input')</t>
+  </si>
+  <si>
+    <t>Entitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('#pr_id_1-table &gt; tbody &gt; tr &gt; td.tableuser-inbox &gt; button')</t>
+  </si>
+  <si>
+    <t>livingExpense</t>
+  </si>
+  <si>
+    <t>document.querySelector('#pr_id_6 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; div.col-1.flex.justify-content-start &gt; button')</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-element savecmnbtn p-button-info p-button-sm p-button-raised w-90 k-mx-2 p-button p-component p-button-icon-only ng-star-inserted")[0]</t>
+  </si>
+  <si>
+    <t>BackButton</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-element p-button-secondary p-button-sm p-button-raised w-70 cmnbtn p-button p-component p-button-icon-only")[0]</t>
+  </si>
+  <si>
+    <t>AddbuttonunderExpenseInfo</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-element p-button-sm p-button-info primelistbtn p-button p-component p-button-icon-only")[1]</t>
+  </si>
+  <si>
+    <t>DeleteButton</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-element p-button-sm p-button-danger primelistbtn p-button p-component p-button-icon-only")[0]</t>
+  </si>
+  <si>
+    <t>ExpenseType</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("headertemp")[7]</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("headertemp")[8]</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("ng-untouched ng-pristine ng-valid ios in-item hydrated ion-untouched ion-pristine ion-valid")[3]</t>
+  </si>
+  <si>
+    <t>CustomerNameInput</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("sc-ion-select-popover-ios sc-ion-label-ios-h sc-ion-label-ios-s ios hydrated")[1]</t>
+  </si>
+  <si>
+    <t>ExpenseTypeInput</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("w-full ng-untouched ng-pristine ng-valid ios in-item hydrated ion-untouched ion-pristine ion-valid")[0]</t>
+  </si>
+  <si>
+    <t>ExpenseTypeInput_Asset</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("select-interface-option ng-star-inserted md sc-ion-select-popover-ios item ios item-lines-default item-fill-none in-list ion-activatable ion-focusable hydrated item-label")[1]</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="expenseAmount"] input')</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("p-checkbox-box p-component")[0]</t>
+  </si>
+  <si>
+    <t>TotalLivingExpense</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("fldouterspacing ng-star-inserted md hydrated")[2]</t>
+  </si>
+  <si>
+    <t>AccereditedCost</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName("fldouterspacing ng-star-inserted md hydrated")[3]</t>
+  </si>
+  <si>
+    <t>PleaseFillMandatoryField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast[role="status"]').shadowRoot.querySelector('div[part="message"]').textContent</t>
+  </si>
+  <si>
+    <t>RequiredField</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg="VAL.REQUIRED"]')</t>
+  </si>
+  <si>
+    <t>EditIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-pencil"]')</t>
+  </si>
+  <si>
+    <t>ExpectedCostOfLiving</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Expected Cost Of Living.TOOLTI"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>MinimumCostOfLiving</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Minimum Living Cost1.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('#seg5')</t>
+  </si>
+  <si>
+    <t>document.querySelector("ion-segment-button[id='seg9']")</t>
+  </si>
+  <si>
+    <t>Quotation Info</t>
+  </si>
+  <si>
+    <t>document.querySelector("button[ng-reflect-text='View']")</t>
+  </si>
+  <si>
+    <t>View Button</t>
+  </si>
+  <si>
+    <t>GoBack Button</t>
+  </si>
+  <si>
+    <t>document.querySelector("button[ng-reflect-text='Go Back']")</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="insuranceCompanyBpId"]')</t>
+  </si>
+  <si>
+    <t>InsuranceCompanyBpId</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="basePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>BasePremiumAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="vatOnBasePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>VatOnBasePremiumAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="netBasePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>NetBasePremiumAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalDiscountAmount"]')</t>
+  </si>
+  <si>
+    <t>totalDiscountAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="Expiry Date.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>ExpiryDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="quoteReferenceNo"]')</t>
+  </si>
+  <si>
+    <t>QuoteReferenceNo</t>
+  </si>
+  <si>
+    <t>document.querySelector("ion-segment-button[id='seg4']")</t>
+  </si>
+  <si>
+    <t>CustomerFinancials</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Edit"]')</t>
+  </si>
+  <si>
+    <t>EditButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Primary Employment"]')</t>
+  </si>
+  <si>
+    <t>Primary Employment</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_NATURE_PERIOD.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Company Type</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_PROFESSION_TYPE.TOOLT"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>ProffesionType</t>
+  </si>
+  <si>
+    <t>Nature of employment</t>
+  </si>
+  <si>
+    <t>Proffesion</t>
+  </si>
+  <si>
+    <t>Statutory authority</t>
+  </si>
+  <si>
+    <t>Employment End date</t>
+  </si>
+  <si>
+    <t>Employer Phone Extension</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_NATURE.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_PROFESSION_CODE.TOOLT"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.EMP_STATUATORY_AUTHORITY."]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="FORM.EMPLOYMENT_END_DATE.TOOLT"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title-tool-tip="FORM.EMPLOYER_PHONE_EXTENSION."]')</t>
+  </si>
+  <si>
+    <t>No.Of partners</t>
+  </si>
+  <si>
+    <t>Nature of buisness</t>
+  </si>
+  <si>
+    <t>Registerd buisness name</t>
+  </si>
+  <si>
+    <t>Registerd buisness number</t>
+  </si>
+  <si>
+    <t>Buisness registration date</t>
+  </si>
+  <si>
+    <t>Office premises type</t>
+  </si>
+  <si>
+    <t>Shareholder percentage</t>
+  </si>
+  <si>
+    <t>No of employes</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title-tool-tip="FORM.NOOFPARTNERS.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.BUSINESS_ACTIVITY.TOOLTIP"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title-tool-tip="FORM.REGISTEREDBUSINAME.TOOLTI"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title-tool-tip="FORM.REGISTEREDBUSINUMBER.TOOL"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="FORM.REGISTERED_BUSI_DATE.TOOL"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.OFFICE_PREMISES_TYPE.TOOL"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="FORM.SHARE_HOLDER_PERCENTAGE"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="FORM.NOOF_EMPLOYEES"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="remarks"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('[icon="pi pi-plus"]')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,8 +1269,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,6 +1296,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -990,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1000,6 +1325,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,7 +1624,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1879,8 +2206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2698,4 +3025,542 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="135.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="87.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="107.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>381</v>
+      </c>
+      <c r="B10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>396</v>
+      </c>
+      <c r="B20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="MurabAppDataEntryLivingExpenses" sheetId="6" r:id="rId4"/>
     <sheet name="IjaraAppDataCheckQuationInfo" sheetId="7" r:id="rId5"/>
     <sheet name="MubAppDaEnCustomerFinancials" sheetId="8" r:id="rId6"/>
+    <sheet name="MurabhAppdataEntryInsuranceInfo" sheetId="9" r:id="rId7"/>
+    <sheet name="MurabhAppdataEntryQuotationInfo" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="537">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1243,6 +1245,393 @@
   </si>
   <si>
     <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.querySelector('[icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>insuranceInfo</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg10")</t>
+  </si>
+  <si>
+    <t>Addbutton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>insuranceQuotationIdMandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Insurance Quatation Id.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>insuranceQuotationId</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Insurance Quatation Id.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>insuranceYearMandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Insurance Year.TOOLTIP"').innerText</t>
+  </si>
+  <si>
+    <t>insuranceYear</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Insurance Year.TOOLTIP"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>depriciationMandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Depreciation (%).TOOLTIP"').innerText</t>
+  </si>
+  <si>
+    <t>depriciation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Depreciation (%).TOOLTIP"').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>AssetPriceMandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Asset Price.TOOLTIP"').innerText</t>
+  </si>
+  <si>
+    <t>AssetPrice</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Asset Price.TOOLTIP"').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>RatePerAssetMandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Rate Per Asset.TOOLTIP"').innerText</t>
+  </si>
+  <si>
+    <t>RatePerAsset</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Rate Per Asset.TOOLTIP"').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>minimumInsurancePremiumMandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Minimum Insurance Premium.TOOL"').innerText</t>
+  </si>
+  <si>
+    <t>minimumInsurancePremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Minimum Insurance Premium.TOOL"').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>BaseInsurancePremiumMandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Base Insurance Premium.TOOLTIP"').innerText</t>
+  </si>
+  <si>
+    <t>BaseInsurancePremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Base Insurance Premium.TOOLTIP"').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>VATPremiumMandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="VAT Premium.TOOLTIP"').innerText</t>
+  </si>
+  <si>
+    <t>VATPremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="VAT Premium.TOOLTIP"').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>NetPremiumMandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Net Premium.TOOLTIP"').innerText</t>
+  </si>
+  <si>
+    <t>NetPremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Net Premium.TOOLTIP"').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-save"]')</t>
+  </si>
+  <si>
+    <t>saveSuccessAlert</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[role="alert"')</t>
+  </si>
+  <si>
+    <t>quotationInfoSection</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg9")</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Save"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]').firstChild</t>
+  </si>
+  <si>
+    <t>deductibleAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Deductible Amount.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>insuranceCompany</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Insurance Company Bp Id.TOOLTI"]')</t>
+  </si>
+  <si>
+    <t>mandatoryInsuranceCompany</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Insurance Company Bp Id.TOOLTI"]').innerText</t>
+  </si>
+  <si>
+    <t>basePremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Base Premium Amount.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>mandatorybasePremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Base Premium Amount.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>vatOnBasePremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Vat On Base Premium Amount.TOO"]')</t>
+  </si>
+  <si>
+    <t>mandatoryvatOnBasePremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Vat On Base Premium Amount.TOO"]').innerText</t>
+  </si>
+  <si>
+    <t>netBasePremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Net Base Premium Amount.TOOLTI"]')</t>
+  </si>
+  <si>
+    <t>mandatorynetBasePremium</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Net Base Premium Amount.TOOLTI"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Total Discount Amount.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>mandatorytotalDiscountAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Total Discount Amount.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>expiryDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Expiry Date.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>mandatoryexpiryDate</t>
+  </si>
+  <si>
+    <t>quotationRefNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Quotation Reference No.TOOLTIP"')</t>
+  </si>
+  <si>
+    <t>mandatoryquotationRefNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Quotation Reference No.TOOLTIP"').innerText</t>
+  </si>
+  <si>
+    <t>insuranceCompanyInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[ng-reflect-placeholder="Select"]')</t>
+  </si>
+  <si>
+    <t>basePremiumInputField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Base Premium Amount.TOOLTIP"]').nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>vatOnBasePremiumInputField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Vat On Base Premium Amount.TOO"]').nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>netBasePremiumInputField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Net Base Premium Amount.TOOLTI"').nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>totalDiscountAmountInputField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Total Discount Amount.TOOLTIP"]').nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>quotationRefNoInputField</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Quotation Reference No.TOOLTIP"]').nextElementSibling.querySelector('input')</t>
+  </si>
+  <si>
+    <t>insuranceCompanyDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector("#ion-rb-15-lbl")</t>
+  </si>
+  <si>
+    <t>basePremiumNumericFieldValidation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Base Premium Amount.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>vatOnBasePremiumNumericValidation</t>
+  </si>
+  <si>
+    <t>netBasePremiumNumericValidation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Net Base Premium Amount.TOOLTI"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>totalDiscountNumericValidation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Total Discount Amount.TOOLTIP"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>quotationRefNoNumericValidation</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Quotation Reference No.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>expiryDateValidation</t>
+  </si>
+  <si>
+    <t>expiryDateInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Today"]')</t>
+  </si>
+  <si>
+    <t>invalidDataPopup</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('div').lastChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="Expiry Date.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-calendar"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>Please enter a value that is no less then zero</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Status"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="basePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>basePremiumAmountInListView</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="vatOnBasePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>vatOnBasePremiumAmountInListView</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="netBasePremiumAmount"]')</t>
+  </si>
+  <si>
+    <t>netBasePremiumAmountInListView</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="quoteReferenceNo"]')</t>
+  </si>
+  <si>
+    <t>quoteReferenceNoInListView</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="recStatus"]')</t>
+  </si>
+  <si>
+    <t>StatusInListView</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Search"]')[1]</t>
+  </si>
+  <si>
+    <t>SearchButtonInListView</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown[ng-reflect-option-label="label"]')</t>
+  </si>
+  <si>
+    <t>DropDownInListView</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-pencil"]').parentElement.parentElement.parentElement.querySelectorAll('td p-celleditor')[1]</t>
+  </si>
+  <si>
+    <t>values in List view</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Update"]')</t>
+  </si>
+  <si>
+    <t>UpdateButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Vat On Base Premium Amount.TOO"').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>StatusValueInListView</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-pencil"]').parentElement.parentElement.parentElement.querySelectorAll('td p-celleditor span')[5].querySelector('span')</t>
   </si>
 </sst>
 </file>
@@ -3275,7 +3664,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3374,6 +3763,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3381,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3563,4 +3953,627 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="89.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45">
+      <c r="A2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30">
+      <c r="A11" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B14" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>432</v>
+      </c>
+      <c r="B18" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>434</v>
+      </c>
+      <c r="B19" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>436</v>
+      </c>
+      <c r="B20" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>438</v>
+      </c>
+      <c r="B21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>444</v>
+      </c>
+      <c r="B24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>446</v>
+      </c>
+      <c r="B25" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>449</v>
+      </c>
+      <c r="B27" t="s">
+        <v>450</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="106.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>469</v>
+      </c>
+      <c r="B12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>471</v>
+      </c>
+      <c r="B13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>476</v>
+      </c>
+      <c r="B16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B19" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>485</v>
+      </c>
+      <c r="B21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>487</v>
+      </c>
+      <c r="B22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>489</v>
+      </c>
+      <c r="B23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>491</v>
+      </c>
+      <c r="B24" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>493</v>
+      </c>
+      <c r="B25" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>495</v>
+      </c>
+      <c r="B26" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>497</v>
+      </c>
+      <c r="B27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>499</v>
+      </c>
+      <c r="B28" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>500</v>
+      </c>
+      <c r="B29" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>502</v>
+      </c>
+      <c r="B30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>504</v>
+      </c>
+      <c r="B31" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>506</v>
+      </c>
+      <c r="B32" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>507</v>
+      </c>
+      <c r="B33" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>509</v>
+      </c>
+      <c r="B34" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>514</v>
+      </c>
+      <c r="B35" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>517</v>
+      </c>
+      <c r="B37" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>519</v>
+      </c>
+      <c r="B38" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>521</v>
+      </c>
+      <c r="B39" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>523</v>
+      </c>
+      <c r="B40" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>525</v>
+      </c>
+      <c r="B41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>527</v>
+      </c>
+      <c r="B42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>529</v>
+      </c>
+      <c r="B43" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>531</v>
+      </c>
+      <c r="B44" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>533</v>
+      </c>
+      <c r="B45" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>535</v>
+      </c>
+      <c r="B46" t="s">
+        <v>536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="MubAppDaEnCustomerFinancials" sheetId="8" r:id="rId6"/>
     <sheet name="MurabhAppdataEntryInsuranceInfo" sheetId="9" r:id="rId7"/>
     <sheet name="MurabhAppdataEntryQuotationInfo" sheetId="10" r:id="rId8"/>
+    <sheet name="TawaAppDataEntryIncomeDetails" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="668">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1632,6 +1633,399 @@
   </si>
   <si>
     <t>document.querySelector('button[icon="pi pi-pencil"]').parentElement.parentElement.parentElement.querySelectorAll('td p-celleditor span')[5].querySelector('span')</t>
+  </si>
+  <si>
+    <t>customerInfoTitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-title[mode="md"]')</t>
+  </si>
+  <si>
+    <t>customerFinancialsTabEyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>incomeSaveBtn</t>
+  </si>
+  <si>
+    <t>incomeBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[1]</t>
+  </si>
+  <si>
+    <t>incomeScreenTitle</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[1].parentElement</t>
+  </si>
+  <si>
+    <t>employementTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="employmentType"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>employementTypeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="employmentType"]')</t>
+  </si>
+  <si>
+    <t>lumpsumAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="lumpsumAmount"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>lumpsumAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="lumpsumAmount"]')</t>
+  </si>
+  <si>
+    <t>pensionAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="pensionAmount"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>pensionAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="pensionAmount"]')</t>
+  </si>
+  <si>
+    <t>financialYearLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Financial Year"] label')</t>
+  </si>
+  <si>
+    <t>financialYearInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Financial Year"] input')</t>
+  </si>
+  <si>
+    <t>filingDateLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Filing Date"] label')</t>
+  </si>
+  <si>
+    <t>filingDateInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[title="Filing Date"] input')</t>
+  </si>
+  <si>
+    <t>incomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[0]</t>
+  </si>
+  <si>
+    <t>incomeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('tbody td ion-select')[0]</t>
+  </si>
+  <si>
+    <t>frequencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[1]</t>
+  </si>
+  <si>
+    <t>frequencyDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('tbody td ion-select')[1]</t>
+  </si>
+  <si>
+    <t>amountLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[2]</t>
+  </si>
+  <si>
+    <t>amountInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAmount"]')</t>
+  </si>
+  <si>
+    <t>defined%_Label</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[3]</t>
+  </si>
+  <si>
+    <t>defined%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeDefPercentage"]')</t>
+  </si>
+  <si>
+    <t>adjusted%_Label</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[4]</t>
+  </si>
+  <si>
+    <t>adjusted%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAdjustedPercent"]')</t>
+  </si>
+  <si>
+    <t>amountConsideredLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[5]</t>
+  </si>
+  <si>
+    <t>amountConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAmountConsidered"]')</t>
+  </si>
+  <si>
+    <t>actionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-table[class="p-element"]')[1].querySelectorAll('thead th')[6]</t>
+  </si>
+  <si>
+    <t>actionAddBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id*="incomeAmountConsidered"]').parentElement.nextSibling.firstChild</t>
+  </si>
+  <si>
+    <t>actionDeleteBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-button[color="danger"]')</t>
+  </si>
+  <si>
+    <t>totalIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncome"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncome"]')</t>
+  </si>
+  <si>
+    <t>totalIncomeConsideredLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncomeConsidered"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalIncomeConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalIncomeConsidered"]')</t>
+  </si>
+  <si>
+    <t>salaryCreditedToBankLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[2].parentElement.parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>salaryCreditedToBankDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[2]</t>
+  </si>
+  <si>
+    <t>bankNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[ng-reflect-placeholder="Bank Name"]').parentElement.parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>bankNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[ng-reflect-placeholder="Bank Name"]')</t>
+  </si>
+  <si>
+    <t>branchNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[3].parentElement.parentElement.previousElementSibling</t>
+  </si>
+  <si>
+    <t>branchNameDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-select[ng-reflect-placeholder="Select"]')[3]</t>
+  </si>
+  <si>
+    <t>deductionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[0]</t>
+  </si>
+  <si>
+    <t>deductionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('tbody[class="p-element p-datatable-tbody"]')[6].querySelectorAll('ion-select')[0]</t>
+  </si>
+  <si>
+    <t>deductionFrequencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[1]</t>
+  </si>
+  <si>
+    <t>deductionFrequencyDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('tbody[class="p-element p-datatable-tbody"]')[6].querySelectorAll('ion-select')[1]</t>
+  </si>
+  <si>
+    <t>deductionAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[2]</t>
+  </si>
+  <si>
+    <t>deductionAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAmount"]')</t>
+  </si>
+  <si>
+    <t>deductionDef%_Label</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[3]</t>
+  </si>
+  <si>
+    <t>deductionDef%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionDefPercentage"]')</t>
+  </si>
+  <si>
+    <t>deductionAdj%_Label</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[4]</t>
+  </si>
+  <si>
+    <t>deductionAdj%_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAdjustedPercent"]')</t>
+  </si>
+  <si>
+    <t>deductionConsideredLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[5]</t>
+  </si>
+  <si>
+    <t>deductionConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAmountConsidered"]')</t>
+  </si>
+  <si>
+    <t>deductionActionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[6].querySelectorAll('tr th')[6]</t>
+  </si>
+  <si>
+    <t>deductionActionAddBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="deductionAmountConsidered"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>totalDeductionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeduction"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalDeductionInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeduction"]')</t>
+  </si>
+  <si>
+    <t>totalDeductionConsideredLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]').previousElementSibling</t>
+  </si>
+  <si>
+    <t>totalDeductionConsideredInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]')</t>
+  </si>
+  <si>
+    <t>currencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[formcontrolname="totalDeductionConsidered"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>currencyDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-row[class="md hydrated"]')[4].querySelector('ion-col ion-select')</t>
+  </si>
+  <si>
+    <t>successToastMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('div[part="message"]')</t>
+  </si>
+  <si>
+    <t>successToastCloseBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('button[part="button"]')</t>
+  </si>
+  <si>
+    <t>customerEmployementListSection</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[iconpos="left"]').parentElement</t>
+  </si>
+  <si>
+    <t>customerEmployementEyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[iconpos="left"]').parentElement.parentElement.nextElementSibling.querySelector('button[icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>customerFinancialsTab</t>
+  </si>
+  <si>
+    <t>document.getElementById("seg4")</t>
+  </si>
+  <si>
+    <t>customerFinancialsPencilEditBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector("[ng-reflect-text='Edit']")</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +2098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1716,11 +2110,87 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -4194,8 +4664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4576,4 +5046,640 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="122" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>608</v>
+      </c>
+      <c r="B4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B5" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>612</v>
+      </c>
+      <c r="B6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B9" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>622</v>
+      </c>
+      <c r="B11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>624</v>
+      </c>
+      <c r="B12" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>626</v>
+      </c>
+      <c r="B13" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>628</v>
+      </c>
+      <c r="B14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>630</v>
+      </c>
+      <c r="B15" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>632</v>
+      </c>
+      <c r="B16" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>634</v>
+      </c>
+      <c r="B17" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>636</v>
+      </c>
+      <c r="B18" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>638</v>
+      </c>
+      <c r="B19" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>640</v>
+      </c>
+      <c r="B20" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>642</v>
+      </c>
+      <c r="B21" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>644</v>
+      </c>
+      <c r="B22" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>646</v>
+      </c>
+      <c r="B23" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>648</v>
+      </c>
+      <c r="B24" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>650</v>
+      </c>
+      <c r="B25" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>652</v>
+      </c>
+      <c r="B26" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>654</v>
+      </c>
+      <c r="B27" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>656</v>
+      </c>
+      <c r="B28" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>658</v>
+      </c>
+      <c r="B29" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>660</v>
+      </c>
+      <c r="B30" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>662</v>
+      </c>
+      <c r="B31" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>664</v>
+      </c>
+      <c r="B32" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>666</v>
+      </c>
+      <c r="B33" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>541</v>
+      </c>
+      <c r="B34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>542</v>
+      </c>
+      <c r="B35" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>544</v>
+      </c>
+      <c r="B36" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>546</v>
+      </c>
+      <c r="B37" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>548</v>
+      </c>
+      <c r="B38" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>550</v>
+      </c>
+      <c r="B39" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>552</v>
+      </c>
+      <c r="B40" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>554</v>
+      </c>
+      <c r="B41" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>556</v>
+      </c>
+      <c r="B42" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>558</v>
+      </c>
+      <c r="B43" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>560</v>
+      </c>
+      <c r="B44" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>562</v>
+      </c>
+      <c r="B45" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>564</v>
+      </c>
+      <c r="B46" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>566</v>
+      </c>
+      <c r="B47" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>568</v>
+      </c>
+      <c r="B48" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>570</v>
+      </c>
+      <c r="B49" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>572</v>
+      </c>
+      <c r="B50" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>574</v>
+      </c>
+      <c r="B51" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>576</v>
+      </c>
+      <c r="B52" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>578</v>
+      </c>
+      <c r="B53" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>580</v>
+      </c>
+      <c r="B54" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>582</v>
+      </c>
+      <c r="B55" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>584</v>
+      </c>
+      <c r="B56" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>586</v>
+      </c>
+      <c r="B57" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>588</v>
+      </c>
+      <c r="B58" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>590</v>
+      </c>
+      <c r="B59" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>592</v>
+      </c>
+      <c r="B60" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>594</v>
+      </c>
+      <c r="B61" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>596</v>
+      </c>
+      <c r="B62" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>598</v>
+      </c>
+      <c r="B63" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>600</v>
+      </c>
+      <c r="B64" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>602</v>
+      </c>
+      <c r="B65" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>604</v>
+      </c>
+      <c r="B66" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>606</v>
+      </c>
+      <c r="B67" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30">
+      <c r="A76" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A67 A77:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B67 B77:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A76">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="MurabhAppdataEntryInsuranceInfo" sheetId="9" r:id="rId7"/>
     <sheet name="MurabhAppdataEntryQuotationInfo" sheetId="10" r:id="rId8"/>
     <sheet name="TawaAppDataEntryIncomeDetails" sheetId="11" r:id="rId9"/>
+    <sheet name="TWAppDataEntryFacilityDetails" sheetId="12" r:id="rId10"/>
+    <sheet name="TWAppDataEntryFollowUpDetails" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="810">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -2026,13 +2028,439 @@
   </si>
   <si>
     <t>document.querySelector("[ng-reflect-text='Edit']")</t>
+  </si>
+  <si>
+    <t>Facility_info_Tab</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg6"]')</t>
+  </si>
+  <si>
+    <t>AddButton_under_FacilityInfo</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>SaveButton</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="product"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="subProductCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="schemeId"] ion-select')</t>
+  </si>
+  <si>
+    <t>ProgrameCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="programCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>FacilityType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="facilityTypeCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="location"] ion-select')</t>
+  </si>
+  <si>
+    <t>PricingIndicator</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="packageId"] ion-select')</t>
+  </si>
+  <si>
+    <t>RequestedAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="amountRequested"]')</t>
+  </si>
+  <si>
+    <t>DeclaredPropertyValue</t>
+  </si>
+  <si>
+    <t>document.querySelector("#assetPrice &gt; div &gt; div &gt; ion-item")</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="currencyCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>LoanTenure</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"]')</t>
+  </si>
+  <si>
+    <t>RequestedAmount_mandy</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="amountRequested"] span[class="redclr ng-star-inserted"')</t>
+  </si>
+  <si>
+    <t>RequestedAmount_number</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[ng-reflect-name="amountRequested"] input')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount_mandy</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"] span[class="redclr ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount_num</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"] input')</t>
+  </si>
+  <si>
+    <t>Select_HomeLoan</t>
+  </si>
+  <si>
+    <t>document.querySelector("#ion-overlay-57 &gt; ion-select-popover &gt; ion-list &gt; ion-radio-group &gt; ion-item:nth-child(2) &gt; ion-radio").shadowRoot.querySelector("#ion-rb-800")</t>
+  </si>
+  <si>
+    <t>Edit_button</t>
+  </si>
+  <si>
+    <t>DeclaredPropertyValue_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('#assetPrice &gt; div &gt; div &gt; ion-item &gt; div.PrimeInputBox &gt; div &gt; p-inputnumber &gt; span &gt; input')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount_input</t>
+  </si>
+  <si>
+    <t>RequestedAmount_Input</t>
+  </si>
+  <si>
+    <t>LoanTenure_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"] input')</t>
+  </si>
+  <si>
+    <t>PleaseFillDetails_Popup</t>
+  </si>
+  <si>
+    <t>SucessPopUP</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[aria-label*="Success"]')</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount_Value</t>
+  </si>
+  <si>
+    <t>document.querySelector('kub-prime-ccy[id="downPaymentAmount"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t>BackButton_prev</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-buttons[slot="start"] ion-button')</t>
+  </si>
+  <si>
+    <t>Inbox_title</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[class="inboxDatacaption"]')</t>
+  </si>
+  <si>
+    <t>LoanTenure_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="loanTenure"] ion-input')</t>
+  </si>
+  <si>
+    <t>status_ToggleButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toggle[role="switch"]')</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>document.querySelector('li[aria-label="PDF"]')</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>document.querySelector('li[aria-label="XLS"]')</t>
+  </si>
+  <si>
+    <t>click_CustomerFollowUpDetailsTab_610</t>
+  </si>
+  <si>
+    <t>click_AddButton_UnderFollowUpDetails_610</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName('p-element p-button-sm p-button-info p-button-raised grid-Addbtn p-button p-component p-button-icon-only ng-star-inserted')[0]</t>
+  </si>
+  <si>
+    <t>click_CalledWhen_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FOLLOWUPDTL.CALLED_WHEN.TO"')</t>
+  </si>
+  <si>
+    <t>click_customerResponceSelect_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FOLLOWUPDTL.CUST_RESP.TOOL"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>click_customerResponce_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FOLLOWUPDTL.CUST_RESP.TOOL"')</t>
+  </si>
+  <si>
+    <t>click_FollowUPDate_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FOLLOWUPDTL.FOLL_UP_DT.TOO"')</t>
+  </si>
+  <si>
+    <t>selectTodayDateIn_FollowUPDate_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-label="Today"]')</t>
+  </si>
+  <si>
+    <t>click_signStatus_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FOLLOWUPDTL.SIGN_STATUS.TO"').nextElementSibling</t>
+  </si>
+  <si>
+    <t>click_remark_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.REMARKS.TOOLTIP"')</t>
+  </si>
+  <si>
+    <t>click_remarkInputBox_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.REMARKS.TOOLTIP"').nextElementSibling.querySelector('textarea')</t>
+  </si>
+  <si>
+    <t>click_backButton_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.getElementsByClassName('p-element p-button-secondary p-button-sm p-button-raised w-70 cmnbtn p-button p-component p-button-icon-only')[0]</t>
+  </si>
+  <si>
+    <t>click_SaveButton_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Save"')</t>
+  </si>
+  <si>
+    <t>getAtribute_InCalledWhen_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FOLLOWUPDTL.CALLED_WHEN.TO"').parentElement.nextElementSibling.querySelector('button')</t>
+  </si>
+  <si>
+    <t>getAtribute_InFolloUpDate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.FOLLOWUPDTL.FOLL_UP_DT.TOO"').parentElement.nextElementSibling.querySelector('button')</t>
+  </si>
+  <si>
+    <t>getAttribute_InRemark_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text=\"SCR.REMARKS.TOOLTIP\"').nextElementSibling.querySelector('textarea')</t>
+  </si>
+  <si>
+    <t>successMsg_610</t>
+  </si>
+  <si>
+    <t>document.querySelector("[aria-label*='Success!']")</t>
+  </si>
+  <si>
+    <t>toastMsgCloseBtn_610</t>
+  </si>
+  <si>
+    <t>document.querySelector("[aria-label*='Close']")</t>
+  </si>
+  <si>
+    <t>fillAllTheDetails_Popup_610</t>
+  </si>
+  <si>
+    <t>editBtn_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Edit"')</t>
+  </si>
+  <si>
+    <t>searchForTheRecord_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Search"')</t>
+  </si>
+  <si>
+    <t>click_ExportBtn_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown[ng-reflect-placeholder="Export"]').querySelector('div').parentElement.firstChild</t>
+  </si>
+  <si>
+    <t>exportToPDF_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="PDF"]').firstChild</t>
+  </si>
+  <si>
+    <t>exportToEXCEL_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="XLS"]').firstChild</t>
+  </si>
+  <si>
+    <t>followUpDetails_UnderFollowUp_610</t>
+  </si>
+  <si>
+    <t>clickActiveBtn_Status_underListView_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-tag[ng-reflect-value="Active"').firstChild</t>
+  </si>
+  <si>
+    <t>followUpDetailsScreen_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Go Back"]').parentElement.nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>searchBtn_underFollowUpList_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Search"').firstChild</t>
+  </si>
+  <si>
+    <t>BackBtn_underFollowUpList_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"')</t>
+  </si>
+  <si>
+    <t>inputBox_searchBtn_underFollowUpDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="pr_id_16"]').firstElementChild.firstElementChild.querySelector('div').nextElementSibling.nextElementSibling.querySelector('span').firstChild</t>
+  </si>
+  <si>
+    <t>inputBox_searchBtn_murabhaDocumentDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[mode="ios"]')</t>
+  </si>
+  <si>
+    <t>matchin data</t>
+  </si>
+  <si>
+    <t>validate_theMatchingData_610</t>
+  </si>
+  <si>
+    <t>document.querySelector("#pr_id_6-table &gt; tbody &gt; tr &gt; td:nth-child(4) &gt; p-celleditor")</t>
+  </si>
+  <si>
+    <t>vaildate_theMisMatchingData_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('p-paginator')[1].firstChild.firstChild.nextElementSibling</t>
+  </si>
+  <si>
+    <t>CalledWhen_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="SCR.FOLLOWUPDTL.CALLED_WHEN.TO"').parentElement.nextElementSibling</t>
+  </si>
+  <si>
+    <t>searchBtnFollowUpDetails_610</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-search"]')[1]</t>
+  </si>
+  <si>
+    <t>nextBtn_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[class*="btnNext"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector("#seg12")</t>
+  </si>
+  <si>
+    <t>followUpDate_610</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="SCR.FOLLOWUPDTL.FOLL_UP_DT.TOO"]').parentElement.nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Go Back"]')</t>
+  </si>
+  <si>
+    <t>BackButtonInFollowUpDetails</t>
+  </si>
+  <si>
+    <t>SaveButtonInFollowUpDetails</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="SCR.FOLLOWUPDTL.CALLED_WHEN.TO"').parentElement.nextElementSibling.firstChild.firstChild</t>
+  </si>
+  <si>
+    <t>CalledWhenInputField</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Clear"]')</t>
+  </si>
+  <si>
+    <t>ClearButtonInCalledWhenField</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="reasonCode"]').querySelector('ion-select')</t>
+  </si>
+  <si>
+    <t>CustomerResponse</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="reasonCode"]')</t>
+  </si>
+  <si>
+    <t>CustomerResponse*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2058,6 +2486,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2098,7 +2532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2113,11 +2547,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2561,6 +3034,710 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="112.28515625" customWidth="1"/>
+    <col min="9" max="9" width="48.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>672</v>
+      </c>
+      <c r="B4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>673</v>
+      </c>
+      <c r="B6" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>678</v>
+      </c>
+      <c r="B9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>680</v>
+      </c>
+      <c r="B10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>683</v>
+      </c>
+      <c r="B12" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>685</v>
+      </c>
+      <c r="B13" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>687</v>
+      </c>
+      <c r="B14" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>689</v>
+      </c>
+      <c r="B15" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>692</v>
+      </c>
+      <c r="B17" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>694</v>
+      </c>
+      <c r="B18" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>698</v>
+      </c>
+      <c r="B20" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>700</v>
+      </c>
+      <c r="B21" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>704</v>
+      </c>
+      <c r="B23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>705</v>
+      </c>
+      <c r="B24" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>707</v>
+      </c>
+      <c r="B25" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>708</v>
+      </c>
+      <c r="B26" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>709</v>
+      </c>
+      <c r="B27" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>711</v>
+      </c>
+      <c r="B28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B29" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>714</v>
+      </c>
+      <c r="B30" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>716</v>
+      </c>
+      <c r="B31" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>718</v>
+      </c>
+      <c r="B32" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>720</v>
+      </c>
+      <c r="B33" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>722</v>
+      </c>
+      <c r="B34" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>724</v>
+      </c>
+      <c r="B35" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>726</v>
+      </c>
+      <c r="B36" t="s">
+        <v>727</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="59.140625" customWidth="1"/>
+    <col min="2" max="2" width="138.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="69.75" customHeight="1">
+      <c r="A3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="57.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="62.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>735</v>
+      </c>
+      <c r="B6" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>737</v>
+      </c>
+      <c r="B7" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>739</v>
+      </c>
+      <c r="B8" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>741</v>
+      </c>
+      <c r="B9" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>743</v>
+      </c>
+      <c r="B10" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>745</v>
+      </c>
+      <c r="B11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>747</v>
+      </c>
+      <c r="B12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>749</v>
+      </c>
+      <c r="B13" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>751</v>
+      </c>
+      <c r="B16" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>753</v>
+      </c>
+      <c r="B17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>755</v>
+      </c>
+      <c r="B18" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>757</v>
+      </c>
+      <c r="B21" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>759</v>
+      </c>
+      <c r="B22" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>761</v>
+      </c>
+      <c r="B23" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>762</v>
+      </c>
+      <c r="B26" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>764</v>
+      </c>
+      <c r="B27" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>766</v>
+      </c>
+      <c r="B28" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>768</v>
+      </c>
+      <c r="B29" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>770</v>
+      </c>
+      <c r="B30" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>773</v>
+      </c>
+      <c r="B33" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>775</v>
+      </c>
+      <c r="B34" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>777</v>
+      </c>
+      <c r="B35" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>779</v>
+      </c>
+      <c r="B36" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>781</v>
+      </c>
+      <c r="B37" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>783</v>
+      </c>
+      <c r="B38" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>786</v>
+      </c>
+      <c r="B42" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>788</v>
+      </c>
+      <c r="B43" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>790</v>
+      </c>
+      <c r="B45" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>757</v>
+      </c>
+      <c r="B46" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>792</v>
+      </c>
+      <c r="B47" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>794</v>
+      </c>
+      <c r="B49" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>797</v>
+      </c>
+      <c r="B50" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>800</v>
+      </c>
+      <c r="B51" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>801</v>
+      </c>
+      <c r="B52" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>803</v>
+      </c>
+      <c r="B53" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>805</v>
+      </c>
+      <c r="B54" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>807</v>
+      </c>
+      <c r="B55" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>809</v>
+      </c>
+      <c r="B56" t="s">
+        <v>808</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B61"/>
@@ -5052,8 +6229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5672,13 +6849,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A67 A77:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B67 B77:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A76">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="TawaAppDataEntryIncomeDetails" sheetId="11" r:id="rId9"/>
     <sheet name="TWAppDataEntryFacilityDetails" sheetId="12" r:id="rId10"/>
     <sheet name="TWAppDataEntryFollowUpDetails" sheetId="13" r:id="rId11"/>
+    <sheet name="IjaraAppDataEntryCFIncome" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="860">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -2454,6 +2455,156 @@
   </si>
   <si>
     <t>CustomerResponse*</t>
+  </si>
+  <si>
+    <t>moduleNameDropdown</t>
+  </si>
+  <si>
+    <t>document.getElementsByTagName("ion-select")[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-radio-group ion-item')</t>
+  </si>
+  <si>
+    <t>mailBox</t>
+  </si>
+  <si>
+    <t>mailInboxSearchBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t>inboxSearchInput</t>
+  </si>
+  <si>
+    <t>document.querySelector("#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt; input")</t>
+  </si>
+  <si>
+    <t>inboxEntitleBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Entitle"]')</t>
+  </si>
+  <si>
+    <t>customerFinancialsPagination</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]').parentElement.parentElement.parentElement.parentElement.querySelector("p-paginator")</t>
+  </si>
+  <si>
+    <t>customerFinancialsMainScreen</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-title[class^="pl-2 pr-2 ion-color ion-color-dark md title-default hydrated"]')</t>
+  </si>
+  <si>
+    <t>financialCommitmentsTitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="financierDesc"]').offsetParent.offsetParent.offsetParent.offsetParent.offsetParent.querySelector('ion-title')</t>
+  </si>
+  <si>
+    <t>financialCommitmentsAddBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="financierDesc"]').offsetParent.offsetParent.offsetParent.querySelector('button[icon="pi pi-plus"]')</t>
+  </si>
+  <si>
+    <t>financialCommitmentSearchInput</t>
+  </si>
+  <si>
+    <t>financialCommitmentExportPDF</t>
+  </si>
+  <si>
+    <t>searchResult</t>
+  </si>
+  <si>
+    <t>customerEmployementScreenTitle</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-title[mode="md"]')[4]</t>
+  </si>
+  <si>
+    <t>customerEmployementScreenBackBtn</t>
+  </si>
+  <si>
+    <t>incomeSectionTitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"]').offsetParent.offsetParent.offsetParent.offsetParent.parentElement.querySelector('ion-title')</t>
+  </si>
+  <si>
+    <t>incomeSectionEyeBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"]').offsetParent.parentElement.querySelector('button')</t>
+  </si>
+  <si>
+    <t>incomeSectionTableValue1</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"]').offsetParent.parentElement.querySelectorAll('td[class="ng-star-inserted"]')[1]</t>
+  </si>
+  <si>
+    <t>customerFinancialsTabBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[0]</t>
+  </si>
+  <si>
+    <t>listview_NatureOfEmployment</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentType"] span')</t>
+  </si>
+  <si>
+    <t>listview_NetIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalIncomeConsidered"] span')</t>
+  </si>
+  <si>
+    <t>listview_NetDeduction</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="totalDeductionConsidered"] span')</t>
+  </si>
+  <si>
+    <t>listview_ConsideredIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="consideredIncome"] span')</t>
+  </si>
+  <si>
+    <t>listview_Currency</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currencyCode"] span')</t>
+  </si>
+  <si>
+    <t>listview_Status</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currencyCode"]').nextElementSibling.firstChild</t>
+  </si>
+  <si>
+    <t>incomeSectionSearchbox</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="employmentType"]').offsetParent.offsetParent.offsetParent.offsetParent.querySelector('span[class="p-paginator-current ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>exportPDF</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="PDF"]')</t>
+  </si>
+  <si>
+    <t>exportXLS</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="XLS"]')</t>
   </si>
 </sst>
 </file>
@@ -2554,7 +2705,187 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -3039,7 +3370,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3339,13 +3670,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3355,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3725,12 +4056,805 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="146.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>814</v>
+      </c>
+      <c r="B5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>816</v>
+      </c>
+      <c r="B6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>818</v>
+      </c>
+      <c r="B7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>664</v>
+      </c>
+      <c r="B8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B10" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>822</v>
+      </c>
+      <c r="B11" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>824</v>
+      </c>
+      <c r="B12" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>826</v>
+      </c>
+      <c r="B13" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>828</v>
+      </c>
+      <c r="B14" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>829</v>
+      </c>
+      <c r="B15" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>539</v>
+      </c>
+      <c r="B18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>541</v>
+      </c>
+      <c r="B19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>542</v>
+      </c>
+      <c r="B20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>544</v>
+      </c>
+      <c r="B21" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>546</v>
+      </c>
+      <c r="B22" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>548</v>
+      </c>
+      <c r="B23" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>550</v>
+      </c>
+      <c r="B24" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>552</v>
+      </c>
+      <c r="B25" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>554</v>
+      </c>
+      <c r="B26" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>556</v>
+      </c>
+      <c r="B27" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>558</v>
+      </c>
+      <c r="B28" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>560</v>
+      </c>
+      <c r="B29" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>562</v>
+      </c>
+      <c r="B30" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>564</v>
+      </c>
+      <c r="B31" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>566</v>
+      </c>
+      <c r="B32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>568</v>
+      </c>
+      <c r="B33" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>570</v>
+      </c>
+      <c r="B34" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>572</v>
+      </c>
+      <c r="B35" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>574</v>
+      </c>
+      <c r="B36" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>576</v>
+      </c>
+      <c r="B37" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>578</v>
+      </c>
+      <c r="B38" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>580</v>
+      </c>
+      <c r="B39" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>582</v>
+      </c>
+      <c r="B40" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>584</v>
+      </c>
+      <c r="B41" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>586</v>
+      </c>
+      <c r="B42" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>588</v>
+      </c>
+      <c r="B43" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>590</v>
+      </c>
+      <c r="B44" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>592</v>
+      </c>
+      <c r="B45" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>594</v>
+      </c>
+      <c r="B46" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>596</v>
+      </c>
+      <c r="B47" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>598</v>
+      </c>
+      <c r="B48" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>600</v>
+      </c>
+      <c r="B49" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>602</v>
+      </c>
+      <c r="B50" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>604</v>
+      </c>
+      <c r="B51" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>606</v>
+      </c>
+      <c r="B52" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>608</v>
+      </c>
+      <c r="B53" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>610</v>
+      </c>
+      <c r="B54" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>612</v>
+      </c>
+      <c r="B55" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>614</v>
+      </c>
+      <c r="B56" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>616</v>
+      </c>
+      <c r="B57" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>618</v>
+      </c>
+      <c r="B58" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>620</v>
+      </c>
+      <c r="B59" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>622</v>
+      </c>
+      <c r="B60" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>624</v>
+      </c>
+      <c r="B61" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>626</v>
+      </c>
+      <c r="B62" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>628</v>
+      </c>
+      <c r="B63" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>630</v>
+      </c>
+      <c r="B64" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>632</v>
+      </c>
+      <c r="B65" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>634</v>
+      </c>
+      <c r="B66" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>636</v>
+      </c>
+      <c r="B67" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>638</v>
+      </c>
+      <c r="B68" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>640</v>
+      </c>
+      <c r="B69" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>642</v>
+      </c>
+      <c r="B70" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>644</v>
+      </c>
+      <c r="B71" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>646</v>
+      </c>
+      <c r="B72" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>648</v>
+      </c>
+      <c r="B73" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>650</v>
+      </c>
+      <c r="B74" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>652</v>
+      </c>
+      <c r="B75" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>654</v>
+      </c>
+      <c r="B76" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>656</v>
+      </c>
+      <c r="B77" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>658</v>
+      </c>
+      <c r="B78" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>660</v>
+      </c>
+      <c r="B79" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>662</v>
+      </c>
+      <c r="B80" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>831</v>
+      </c>
+      <c r="B81" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>833</v>
+      </c>
+      <c r="B82" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>834</v>
+      </c>
+      <c r="B83" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>836</v>
+      </c>
+      <c r="B84" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>838</v>
+      </c>
+      <c r="B85" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>840</v>
+      </c>
+      <c r="B86" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>842</v>
+      </c>
+      <c r="B87" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>844</v>
+      </c>
+      <c r="B88" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>846</v>
+      </c>
+      <c r="B89" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>848</v>
+      </c>
+      <c r="B90" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>850</v>
+      </c>
+      <c r="B91" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>852</v>
+      </c>
+      <c r="B92" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>854</v>
+      </c>
+      <c r="B93" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>830</v>
+      </c>
+      <c r="B94" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>856</v>
+      </c>
+      <c r="B95" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>858</v>
+      </c>
+      <c r="B96" t="s">
+        <v>859</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="A2:A96">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6849,13 +7973,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A67 A77:A1048576">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B67 B77:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A76">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,16 @@
     <sheet name="TWAppDataEntryFacilityDetails" sheetId="12" r:id="rId10"/>
     <sheet name="TWAppDataEntryFollowUpDetails" sheetId="13" r:id="rId11"/>
     <sheet name="IjaraAppDataEntryCFIncome" sheetId="14" r:id="rId12"/>
+    <sheet name="CustomerSearchPaths" sheetId="15" r:id="rId13"/>
+    <sheet name="TawaraqOfferingDocumentDetails" sheetId="16" r:id="rId14"/>
+    <sheet name="MurabhaOfferingOfferDetails" sheetId="17" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1247">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -2605,6 +2608,1167 @@
   </si>
   <si>
     <t>document.querySelector('p-dropdownitem[ng-reflect-label="XLS"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Customer Type.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="cifId"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-title="Application Number"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-name="mobileNumber"]')</t>
+  </si>
+  <si>
+    <t>documentDetails_module</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Customer Name.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>documentName</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_NAME.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>requiredAtStage</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="REQUIRED_AT_STAGE.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>documentStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_STATUS.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>mandatory/optional</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="MANDATORY_OR_OPTIONAL.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>documentCategory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_CATEGORY.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>uploadDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="uploadDate"]')</t>
+  </si>
+  <si>
+    <t>expectedReceiptDate</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="expectedDateOfReceipt"]')</t>
+  </si>
+  <si>
+    <t>referralStage</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Deferral Stage.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>defApprovedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DEF_APPROVED_BY.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>changeInNatureApprovedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Change In Nature Approved By.T"]+ion-select')</t>
+  </si>
+  <si>
+    <t>documentForm</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Form.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>documentQuality</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Quality.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>documentReferrenceNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.DOCUMENT_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>documentReceivedBy</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_APPROVED_BY.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>locationWhereReceived</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_DETAILS_LOCATION_WHER"]+ion-select')</t>
+  </si>
+  <si>
+    <t>rackNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.RACK_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>shelfNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.SHELF_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>boxNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.BOX_NUMBER.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>dateOfExpiry</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="expiryDate"]')</t>
+  </si>
+  <si>
+    <t>ladgementAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Lodgement Amount.TOOLTIP"] + ion-input')</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]+ion-textarea')</t>
+  </si>
+  <si>
+    <t>backButton_prev</t>
+  </si>
+  <si>
+    <t>inbox_title</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[class="inboxDatacaption"]').innerText</t>
+  </si>
+  <si>
+    <t>uploadDate_calender</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-name="uploadDate"] button')</t>
+  </si>
+  <si>
+    <t>rackNo_nonmandy</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="rackNumber"]')</t>
+  </si>
+  <si>
+    <t>shelfno_nonMandy</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="shelfNumber"]')</t>
+  </si>
+  <si>
+    <t>boxNo_nonMandy</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="boxNumber"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-eye"]')</t>
+  </si>
+  <si>
+    <t>ViewButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg14"]')</t>
+  </si>
+  <si>
+    <t>customerNameNonMan</t>
+  </si>
+  <si>
+    <t>documentName*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Customer Name.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_NAME.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="REQUIRED_AT_STAGE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_STATUS.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="MANDATORY_OR_OPTIONAL.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>requiredAtStageNonMan</t>
+  </si>
+  <si>
+    <t>documentStatus*</t>
+  </si>
+  <si>
+    <t>mandatory/optional*</t>
+  </si>
+  <si>
+    <t>documentCategory*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_CATEGORY.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>uploadDateNonMan</t>
+  </si>
+  <si>
+    <t>expectedReceiptDateNonMan</t>
+  </si>
+  <si>
+    <t>deferralStageNonMan</t>
+  </si>
+  <si>
+    <t>defApprovedByNonMan</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="uploadDate"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Deferral Stage.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DEF_APPROVED_BY.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>changeInNatureApprovedByNonMan</t>
+  </si>
+  <si>
+    <t>documentFormNonMan</t>
+  </si>
+  <si>
+    <t>documentQuality*</t>
+  </si>
+  <si>
+    <t>documentReferrenceNumberNonMan</t>
+  </si>
+  <si>
+    <t>documentReceivedByNonMan</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Change In Nature Approved By.T"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Form.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Document Quality.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.DOCUMENT_NUMBER.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="DOCUMENT_APPROVED_BY.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>locationWhereReceivedNonMan</t>
+  </si>
+  <si>
+    <t>rackNoNonMan</t>
+  </si>
+  <si>
+    <t>shelfNoNonMan</t>
+  </si>
+  <si>
+    <t>boxNoNonMan</t>
+  </si>
+  <si>
+    <t>dateOfExpiryNonMan</t>
+  </si>
+  <si>
+    <t>ladgementAmountNonMan</t>
+  </si>
+  <si>
+    <t>remark*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.RACK_NUMBER.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.SHELF_NUMBER.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="FORM.BOX_NUMBER.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Lodgement Amount.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Remarks.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Go Back"')[1].parentElement.textContent</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-label')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[3]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[4]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[5]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-label')[1]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Edit"]')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Accept Offer"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]').parentElement</t>
+  </si>
+  <si>
+    <t>offer details section</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Product"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Sub-Product"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Scheme"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Pricing Indicator"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Offered Amount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Tenure"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Nature of Finance"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Currency"]')</t>
+  </si>
+  <si>
+    <t>Finance Detalis</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Amount Requested"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Amount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Profit Amount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Contract Value"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Income"]')</t>
+  </si>
+  <si>
+    <t>FdTotalNetIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Net Income"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Installment Frequency"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="IRR"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Tenure "]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Additional Down payment"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Fees"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Obligations"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="No. of Installments"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Last Installment Amount"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="APR"]')</t>
+  </si>
+  <si>
+    <t>Credit Rise Factor</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="applScore"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="riskCatgId"]')</t>
+  </si>
+  <si>
+    <t>Credit Score Details</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="description"]').firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerId"]').firstChild</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="score"]').firstChild</t>
+  </si>
+  <si>
+    <t>OfferDetailsSection</t>
+  </si>
+  <si>
+    <t>FinanceDetailsSection</t>
+  </si>
+  <si>
+    <t>CreditRiskFactor</t>
+  </si>
+  <si>
+    <t>CreditScoreDetails</t>
+  </si>
+  <si>
+    <t>EligibilityDetails</t>
+  </si>
+  <si>
+    <t>InterestRateStructure</t>
+  </si>
+  <si>
+    <t>editBtnIndex2</t>
+  </si>
+  <si>
+    <t>AcceptOffer</t>
+  </si>
+  <si>
+    <t>getAttribute_product</t>
+  </si>
+  <si>
+    <t>getAttribute_SubProduct</t>
+  </si>
+  <si>
+    <t>getAttribute_Scheme</t>
+  </si>
+  <si>
+    <t>getAttribute_PrincingIndicator</t>
+  </si>
+  <si>
+    <t>BackBtn_NavigativeFacilityScreen</t>
+  </si>
+  <si>
+    <t>OflProduct</t>
+  </si>
+  <si>
+    <t>OflSubProduct</t>
+  </si>
+  <si>
+    <t>OflScheme</t>
+  </si>
+  <si>
+    <t>OflPrincingIndicator</t>
+  </si>
+  <si>
+    <t>OflOfferdAmount</t>
+  </si>
+  <si>
+    <t>OflTenure</t>
+  </si>
+  <si>
+    <t>OflNaturalOfFinance</t>
+  </si>
+  <si>
+    <t>OflCurrency</t>
+  </si>
+  <si>
+    <t>FdAmountRequested</t>
+  </si>
+  <si>
+    <t>FdDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>FdTotalDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>FdProfitAmount</t>
+  </si>
+  <si>
+    <t>FdTotalContractAmount</t>
+  </si>
+  <si>
+    <t>FdTotalIncome</t>
+  </si>
+  <si>
+    <t>FdInstallmentFrequence</t>
+  </si>
+  <si>
+    <t>FdIRR</t>
+  </si>
+  <si>
+    <t>FdTenure</t>
+  </si>
+  <si>
+    <t>FdAdditionalDownPayment</t>
+  </si>
+  <si>
+    <t>FdDownPaymentPercentage</t>
+  </si>
+  <si>
+    <t>FdTotalFees</t>
+  </si>
+  <si>
+    <t>FdTotalObligation</t>
+  </si>
+  <si>
+    <t>FdNoOfInstallment</t>
+  </si>
+  <si>
+    <t>FdLastInstallmentAmount</t>
+  </si>
+  <si>
+    <t>FdAPR</t>
+  </si>
+  <si>
+    <t>TotalScore</t>
+  </si>
+  <si>
+    <t>RiseLevel</t>
+  </si>
+  <si>
+    <t>CSD_SrNo</t>
+  </si>
+  <si>
+    <t>CSD_CustomerName</t>
+  </si>
+  <si>
+    <t>CSD_CreditBureuaScore</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Product"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Sub-Product"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Scheme"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Pricing Indicator"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>backButtonInRecord</t>
+  </si>
+  <si>
+    <t>offerDetailsTab</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg1"]')</t>
+  </si>
+  <si>
+    <t>offerDetailsTabPencilIcon</t>
+  </si>
+  <si>
+    <t>creditRiskFactorSection</t>
+  </si>
+  <si>
+    <t>creditScoreDetailsSection</t>
+  </si>
+  <si>
+    <t>eligibilityDetailsSection</t>
+  </si>
+  <si>
+    <t>interestRateStructureSection</t>
+  </si>
+  <si>
+    <t>installmentsSection</t>
+  </si>
+  <si>
+    <t>appealRequestSection</t>
+  </si>
+  <si>
+    <t>offerDetails_productLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="productCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_productInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="productCode"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_subProductLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="subProductCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_subProductInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="subProductCode"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_schemeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="scheme"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_schemeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="scheme"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_pricingIndicatorLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="pricingIndicator"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_pricingIndicatorInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="pricingIndicator"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_offeredAmountLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="offeredAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_offeredAmountInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="offeredAmt"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_tenureLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="tenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_tenureInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="tenure"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_natureOfFinanceLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="natureOfFinance"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_natureOfFinanceInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="natureOfFinance"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_currencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currency"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_currencyInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currency"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_eligibleIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalMonthlyIncome"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_eligibleIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalMonthlyIncome"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalObligationsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currentObligations"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalObligationsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currentObligations"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalnetIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="netIncome"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalnetIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="netIncome"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalIncome"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalIncome"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalFeesLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="chargeAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalFeesInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="chargeAmount"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalDownPaymentAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalDownPaymentAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalContractValueLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalcontractvalue"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalContractValueInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalcontractvalue"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_noOfInstallmentsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="numberOfInstalments"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_noOfInstallmentsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="numberOfInstalments"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_lastInstallmentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="instalmentAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_lastInstallmentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="instalmentAmt"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_IRRLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="internalRateOfReturn"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_IRRInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="internalRateOfReturn"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_InstallmentFrequencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="repayFrequency"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_InstallmentFrequencyInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="repayFrequency"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_APRLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="effectiveApprovedAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_APRInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="effectiveApprovedAmt"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_AmountRequestedLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="requestedAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_AmountRequestedInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="requestedAmount"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_AdditionalDownPaymentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="aditionalDownpaymentAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_AdditionalDownPaymentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="aditionalDownpaymentAmt"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentPercentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentPercentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_tenureLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="loanTenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_tenureInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="loanTenure"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_profitAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="interestComponent"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_profitAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="interestComponent"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="downPaymentAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="downPaymentAmount"] input')</t>
+  </si>
+  <si>
+    <t>creditRisk_TotalScoreField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="applScore"] span')</t>
+  </si>
+  <si>
+    <t>creditRisk_RiskLevelField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="riskCatgId"] span')</t>
+  </si>
+  <si>
+    <t>creditScore_SerialNoField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="description"] span')</t>
+  </si>
+  <si>
+    <t>creditScore_CustomerNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerId"] span')</t>
+  </si>
+  <si>
+    <t>creditScore_CreditBureauScoreField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="score"] span')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityType"] span')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityAmt"] span')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligiblePercent"] span')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currency"] span')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="actualPercent"] span')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="deviationLvl"] span')</t>
+  </si>
+  <si>
+    <t>EligibilityTypeField</t>
+  </si>
+  <si>
+    <t>EligibilityAmtField</t>
+  </si>
+  <si>
+    <t>EligibilityPercentField</t>
+  </si>
+  <si>
+    <t>CurrencyField</t>
+  </si>
+  <si>
+    <t>ActualPercentField</t>
+  </si>
+  <si>
+    <t>DeviationLevelField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityType"')</t>
+  </si>
+  <si>
+    <t>EligibilityAmountField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityAmt"')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligiblePercent"')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currency"')</t>
+  </si>
+  <si>
+    <t>ActualPercentageField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="actualPercent"')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="deviationLvl"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_Period</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="periodDesc"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_RateDefinition</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="interestRateType"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_EffectiveRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="baseRate"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_BaseRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="originalRate"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_SpreadRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="spreadRate"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_CapRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="capRate"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_FloorRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="floorRate"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_RBPAdjuster</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="multiplierValue"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_PenaltyRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="penaltyRate"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_PenaltyFee</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="penaltyFee"')</t>
+  </si>
+  <si>
+    <t>Installments_InstallmentPeriod</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="installmentperiod"')</t>
+  </si>
+  <si>
+    <t>Installments_InstallmentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="instlamt"')</t>
+  </si>
+  <si>
+    <t>NewRequestedAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="New Requested Amount"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>NewRequestedTenure</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="New Requested Tenure"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>OriginalRequestedAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Original Requested Amount"])</t>
+  </si>
+  <si>
+    <t>OriginalRequestedTenure</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Original Requested Tenure"]')</t>
+  </si>
+  <si>
+    <t>RecommendationsSanctionConditionsLink</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="New Requested Tenure"]').parentElement.parentElement.parentElement.parentElement.nextElementSibling.querySelectorAll('a')[0]</t>
+  </si>
+  <si>
+    <t>ApprovalHistoryLink</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="New Requested Tenure"]').parentElement.parentElement.parentElement.parentElement.nextElementSibling.querySelectorAll('a')[1]</t>
+  </si>
+  <si>
+    <t>AppealButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Appeal"]')</t>
+  </si>
+  <si>
+    <t>AcceptOfferButton</t>
+  </si>
+  <si>
+    <t>PencilIcon</t>
+  </si>
+  <si>
+    <t>offerDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[0]</t>
+  </si>
+  <si>
+    <t>financeDetailsSection</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_EligibilityTypeField</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_EligibilityPercentField</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_CurrencyField</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_DeviationLevelField</t>
   </si>
 </sst>
 </file>
@@ -2645,7 +3809,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2670,6 +3834,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2683,7 +3853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2701,11 +3871,120 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -3670,13 +4949,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4056,13 +5335,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4073,8 +5352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4845,20 +6124,1950 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A96">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="78.5703125" customWidth="1"/>
+    <col min="2" max="2" width="149.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="104.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>867</v>
+      </c>
+      <c r="B5" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>869</v>
+      </c>
+      <c r="B6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>871</v>
+      </c>
+      <c r="B7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>873</v>
+      </c>
+      <c r="B8" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>875</v>
+      </c>
+      <c r="B9" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>877</v>
+      </c>
+      <c r="B10" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>879</v>
+      </c>
+      <c r="B11" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>881</v>
+      </c>
+      <c r="B12" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>883</v>
+      </c>
+      <c r="B13" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>885</v>
+      </c>
+      <c r="B14" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>887</v>
+      </c>
+      <c r="B15" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>889</v>
+      </c>
+      <c r="B16" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>891</v>
+      </c>
+      <c r="B17" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>893</v>
+      </c>
+      <c r="B18" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>895</v>
+      </c>
+      <c r="B19" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>897</v>
+      </c>
+      <c r="B20" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>899</v>
+      </c>
+      <c r="B21" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>901</v>
+      </c>
+      <c r="B22" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>903</v>
+      </c>
+      <c r="B23" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>905</v>
+      </c>
+      <c r="B24" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>907</v>
+      </c>
+      <c r="B25" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>909</v>
+      </c>
+      <c r="B26" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>910</v>
+      </c>
+      <c r="B27" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>912</v>
+      </c>
+      <c r="B29" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>914</v>
+      </c>
+      <c r="B30" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>916</v>
+      </c>
+      <c r="B31" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>918</v>
+      </c>
+      <c r="B32" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>921</v>
+      </c>
+      <c r="B33" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>923</v>
+      </c>
+      <c r="B34" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>924</v>
+      </c>
+      <c r="B35" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>930</v>
+      </c>
+      <c r="B36" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>931</v>
+      </c>
+      <c r="B37" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>932</v>
+      </c>
+      <c r="B38" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>933</v>
+      </c>
+      <c r="B39" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>935</v>
+      </c>
+      <c r="B40" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>936</v>
+      </c>
+      <c r="B41" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>937</v>
+      </c>
+      <c r="B42" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>938</v>
+      </c>
+      <c r="B43" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>942</v>
+      </c>
+      <c r="B44" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>943</v>
+      </c>
+      <c r="B45" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>944</v>
+      </c>
+      <c r="B46" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>945</v>
+      </c>
+      <c r="B47" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>946</v>
+      </c>
+      <c r="B48" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>952</v>
+      </c>
+      <c r="B49" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>953</v>
+      </c>
+      <c r="B50" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>954</v>
+      </c>
+      <c r="B51" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>955</v>
+      </c>
+      <c r="B52" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>956</v>
+      </c>
+      <c r="B53" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>957</v>
+      </c>
+      <c r="B54" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>958</v>
+      </c>
+      <c r="B55" t="s">
+        <v>963</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="128.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B5" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B7" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B8" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B9" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="11" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B17" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B18" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B19" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B20" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B21" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B22" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B23" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B24" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="11" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B26" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B27" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B28" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B29" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B30" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B31" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>991</v>
+      </c>
+      <c r="B32" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B33" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B34" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B35" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B36" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B37" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B38" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B39" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="11" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="11" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>816</v>
+      </c>
+      <c r="B51" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B53" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B55" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B56" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B57" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B58" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B59" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B60" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B61" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>672</v>
+      </c>
+      <c r="B149" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B151" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>814</v>
+      </c>
+      <c r="B152" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>816</v>
+      </c>
+      <c r="B153" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B154" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A49">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A49">
+    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B151">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4866,7 +8075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -5364,10 +8573,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6180,6 +9389,94 @@
       <c r="B102" t="s">
         <v>303</v>
       </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7973,13 +11270,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A67 A77:A1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B67 B77:B1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A76">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="CustomerSearchPaths" sheetId="15" r:id="rId13"/>
     <sheet name="TawaraqOfferingDocumentDetails" sheetId="16" r:id="rId14"/>
     <sheet name="MurabhaOfferingOfferDetails" sheetId="17" r:id="rId15"/>
+    <sheet name="ALoanAppdataEntryContactDetails" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1296">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3769,6 +3770,153 @@
   </si>
   <si>
     <t>eligibilityDetails_DeviationLevelField</t>
+  </si>
+  <si>
+    <t>phone_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_TYPE.TOO"]+ion-select')</t>
+  </si>
+  <si>
+    <t>phone_number_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_NUMBER.T"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>phone_number_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_NUMBER.T"]').innerText</t>
+  </si>
+  <si>
+    <t>consent_for_phone_contact_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_CONSENT."]+ion-select')</t>
+  </si>
+  <si>
+    <t>prefered_phone_contact_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_CONTACT_"]+ion-select')</t>
+  </si>
+  <si>
+    <t>prefered_time_for_contact_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_CONTACT_"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>prefered_time_for_contact_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_CONTACT_"]').innerText</t>
+  </si>
+  <si>
+    <t>email_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_EMAIL_TYPE.TOO"]+ion-select')</t>
+  </si>
+  <si>
+    <t>email_input_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CONTACT_DETAILS_EMAIL_ID"] input')</t>
+  </si>
+  <si>
+    <t>email_id_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_EMAIL_ID.TOOLT"]').innerText</t>
+  </si>
+  <si>
+    <t>phone_contact_time_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CONTACT_DETAILS_PHONE_CONTACT_"] input')</t>
+  </si>
+  <si>
+    <t>phone_number_field_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CONTACT_DETAILS_PHONE_NUMBER"]+div ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>prefered_time_for_contact_field_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CONTACT_DETAILS_PHONE_CONTACT_"]+div ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>email_id_field_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CONTACT_DETAILS_EMAIL_ID"]+div ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>contact_details_toggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>contact_details_toggle_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle').getAttribute('aria-checked')</t>
+  </si>
+  <si>
+    <t>save_button</t>
+  </si>
+  <si>
+    <t>toast_container_message</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="toast-container"] button+div').innerText</t>
+  </si>
+  <si>
+    <t>toast_container_message_close_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="toast-container"] button')</t>
+  </si>
+  <si>
+    <t>toast_message</t>
+  </si>
+  <si>
+    <t>back_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-card-content button[ng-reflect-text="Go Back"]')</t>
+  </si>
+  <si>
+    <t>pdf_download</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="PDF"] span')</t>
+  </si>
+  <si>
+    <t>xls_download</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="XLS"] span')</t>
+  </si>
+  <si>
+    <t>additional_customer_info_tab</t>
+  </si>
+  <si>
+    <t>customer_personal_information_edit_button</t>
+  </si>
+  <si>
+    <t>document.getElementById('seg4')</t>
+  </si>
+  <si>
+    <t>phone_number_field_validation2</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('digital-text-box[ng-reflect-title="CONTACT_DETAILS_PHONE_NUMBER"]+div ion-badge')[1].innerText</t>
   </si>
 </sst>
 </file>
@@ -3876,55 +4024,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4949,13 +5049,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5335,13 +5435,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6124,17 +6224,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A96">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6341,13 +6441,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6809,13 +6909,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6825,8 +6925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8049,23 +8149,264 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A49">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B151">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="2" max="2" width="127" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11270,13 +11611,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A67 A77:A1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B67 B77:B1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A76">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="TawaraqOfferingDocumentDetails" sheetId="16" r:id="rId14"/>
     <sheet name="MurabhaOfferingOfferDetails" sheetId="17" r:id="rId15"/>
     <sheet name="ALoanAppdataEntryContactDetails" sheetId="18" r:id="rId16"/>
+    <sheet name="ALoanAppdataentryIncomedetails" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="1303">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3917,6 +3918,27 @@
   </si>
   <si>
     <t>document.querySelectorAll('digital-text-box[ng-reflect-title="CONTACT_DETAILS_PHONE_NUMBER"]+div ion-badge')[1].innerText</t>
+  </si>
+  <si>
+    <t>document.getElementById("seg5")</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[7].querySelectorAll('tr th')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[7].querySelectorAll('tr th')[2]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[7].querySelectorAll('tr th')[3]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[7].querySelectorAll('tr th')[4]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[7].querySelectorAll('tr th')[5]</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('thead[class="p-datatable-thead"]')[7].querySelectorAll('tr th')[6]</t>
   </si>
 </sst>
 </file>
@@ -4024,7 +4046,43 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -5049,13 +5107,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5065,7 +5123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -5435,13 +5493,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="22" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6224,17 +6282,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A96">
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6441,13 +6499,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6909,13 +6967,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8149,23 +8207,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A49">
-    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B151">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8175,7 +8233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -8403,10 +8461,90 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="135.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A37">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B37">
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A46">
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8916,8 +9054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10989,16 +11127,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="38.140625" customWidth="1"/>
     <col min="2" max="2" width="122" customWidth="1"/>
+    <col min="3" max="3" width="101.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -11062,7 +11201,7 @@
         <v>616</v>
       </c>
       <c r="B8" t="s">
-        <v>617</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11094,7 +11233,7 @@
         <v>624</v>
       </c>
       <c r="B12" t="s">
-        <v>625</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11110,7 +11249,7 @@
         <v>628</v>
       </c>
       <c r="B14" t="s">
-        <v>629</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11126,7 +11265,7 @@
         <v>632</v>
       </c>
       <c r="B16" t="s">
-        <v>633</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11142,7 +11281,7 @@
         <v>636</v>
       </c>
       <c r="B18" t="s">
-        <v>637</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11158,7 +11297,7 @@
         <v>640</v>
       </c>
       <c r="B20" t="s">
-        <v>641</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11222,7 +11361,7 @@
         <v>656</v>
       </c>
       <c r="B28" t="s">
-        <v>657</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -11609,15 +11748,103 @@
         <v>44</v>
       </c>
     </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>840</v>
+      </c>
+      <c r="B77" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>842</v>
+      </c>
+      <c r="B78" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>844</v>
+      </c>
+      <c r="B79" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>846</v>
+      </c>
+      <c r="B80" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>848</v>
+      </c>
+      <c r="B81" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>850</v>
+      </c>
+      <c r="B82" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>852</v>
+      </c>
+      <c r="B83" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>854</v>
+      </c>
+      <c r="B84" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>830</v>
+      </c>
+      <c r="B85" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>856</v>
+      </c>
+      <c r="B86" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>858</v>
+      </c>
+      <c r="B87" t="s">
+        <v>859</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A67 A77:A1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B67 B77:B1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A76">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,15 @@
     <sheet name="ALoanAppdataEntryContactDetails" sheetId="17" r:id="rId16"/>
     <sheet name="ALoanAppdataentryIncomedetails" sheetId="18" r:id="rId17"/>
     <sheet name="ALADEntryIdentificationDetails" sheetId="19" r:id="rId18"/>
+    <sheet name="ALAppDataEntryDocumentDetails" sheetId="20" r:id="rId19"/>
+    <sheet name="IjADataEntryIdentifiDetails" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1397">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4174,6 +4176,54 @@
   </si>
   <si>
     <t>document.querySelector('button[label="Approve"]')</t>
+  </si>
+  <si>
+    <t>document.getElementById('seg13')</t>
+  </si>
+  <si>
+    <t>DocumentDetails</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown[placeholder="Export"]')</t>
+  </si>
+  <si>
+    <t>Export_DropDown</t>
+  </si>
+  <si>
+    <t>BackButtonInListView</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Add"]')</t>
+  </si>
+  <si>
+    <t>DOCUMENT_NAME</t>
+  </si>
+  <si>
+    <t>BackButtonInRecord</t>
+  </si>
+  <si>
+    <t>SearchFieldInListView</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t>PDF_download</t>
+  </si>
+  <si>
+    <t>XLS_download</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-eye"]')[0]</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-icon[aria-label="arrow back outline"]').parentElement.shadowRoot.querySelector('button')</t>
+  </si>
+  <si>
+    <t>Additional_CustomerInformation</t>
+  </si>
+  <si>
+    <t>document.getElementById("seg3")</t>
   </si>
 </sst>
 </file>
@@ -8721,7 +8771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8799,8 +8851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9221,6 +9273,129 @@
   <conditionalFormatting sqref="A2:A51">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="114.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>927</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B9" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9410,6 +9585,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" firstSheet="17" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="ALADEntryIdentificationDetails" sheetId="19" r:id="rId18"/>
     <sheet name="ALAppDataEntryDocumentDetails" sheetId="20" r:id="rId19"/>
     <sheet name="IjADataEntryIdentifiDetails" sheetId="22" r:id="rId20"/>
+    <sheet name="TWAppDataCheckAddressDetails" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="1397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="1665">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -4224,6 +4225,810 @@
   </si>
   <si>
     <t>document.getElementById("seg3")</t>
+  </si>
+  <si>
+    <t>hamburgerMenu</t>
+  </si>
+  <si>
+    <t>hB_Transaction</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class="menu-list-accordian nav_link_try item md item-lines-none item-fill-none ion-focusable hydrated ion-activatable"]')[1]</t>
+  </si>
+  <si>
+    <t>hB_ApplicationManager</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class="item md item-lines-none item-fill-none in-list ion-focusable hydrated item-label ion-activatable"]')[2]</t>
+  </si>
+  <si>
+    <t>hB_CustomerDetails</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-buttons[class="sc-ion-buttons-md-h sc-ion-buttons-md-s md hydrated"]&gt;ion-button[class="ion-color ion-color-primary md button button-small button-clear in-buttons ion-activatable ion-focusable hydrated"]')[169]</t>
+  </si>
+  <si>
+    <t>customerDetailsTab</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-segment-button[class$="segment-button-layout-icon-top ion-activatable ion-activatable-instant ion-focusable hydrated"]')[0]</t>
+  </si>
+  <si>
+    <t>customerDetailsAddNew</t>
+  </si>
+  <si>
+    <t>personalDetailsTitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Personal Details"]')</t>
+  </si>
+  <si>
+    <t>customerPersonalInformationTitle</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-title[class="pl-2 pr-2 ion-color ion-color-dark md title-default hydrated"]')</t>
+  </si>
+  <si>
+    <t>customerDetails_BackBtn</t>
+  </si>
+  <si>
+    <t>customerDetails_SaveBtn</t>
+  </si>
+  <si>
+    <t>customerDetails_UpdateBtn</t>
+  </si>
+  <si>
+    <t>applicantTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.APPLICANT.TYPE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>applicantTypeStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.APPLICANT.TYPE.TOOLTIP"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>applicantTypeLabelDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label=" Primary Applicant ,  Applicant Type *"]')</t>
+  </si>
+  <si>
+    <t>customerTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_CUSTOMER_TYPE."]')</t>
+  </si>
+  <si>
+    <t>customerTypeStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_CUSTOMER_TYPE."]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>customerTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label$="  Customer Type *"]')</t>
+  </si>
+  <si>
+    <t>titlelabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILSISLAMIC_SALUTAT"]')</t>
+  </si>
+  <si>
+    <t>titlelabelStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILSISLAMIC_SALUTAT"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>titleDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label$="  Title *"]')</t>
+  </si>
+  <si>
+    <t>firstNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="First Name.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>firstNameStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="First Name.TOOLTIP"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>firstNameTextField</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-input[ type="text"]&gt;input')[0]</t>
+  </si>
+  <si>
+    <t>middleNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Middle Name.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>middleNameTextField</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-input[ type="text"]')[1]</t>
+  </si>
+  <si>
+    <t>lastNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Last Name.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>lastNameStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Last Name.TOOLTIP"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>lastNameTextField</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-input[ type="text"]')[2]</t>
+  </si>
+  <si>
+    <t>familyNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Family Name.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>familyNameTextField</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-input[ type="text"]')[3]</t>
+  </si>
+  <si>
+    <t>firstNameArabicLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="First Name (Arabic).TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>firstNameArabicStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="First Name (Arabic).TOOLTIP"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>firstNameArabicTextField</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-input[ type="text"]')[4]</t>
+  </si>
+  <si>
+    <t>middleNameArabicLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Middle Name (Arabic).TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>middleNameArabicTextField</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-input[ type="text"]')[5]</t>
+  </si>
+  <si>
+    <t>lastNameArabicLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Last Name (Arabic).TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>lastNameArabicStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CustomerDetailsIslamic_Form_01"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>lastNameArabicTextField</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-input[ type="text"]')[6]</t>
+  </si>
+  <si>
+    <t>familyNameArabicLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Family Name (Arabic).TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>familyNameArabicTextField</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-input[ type="text"]')[7]</t>
+  </si>
+  <si>
+    <t>dobLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.DOB.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>dobStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="LEAD_DETAILS.DOB.TOOLTIP"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>dobTextField</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[id="icon"]')</t>
+  </si>
+  <si>
+    <t>ageLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>ageTextfield</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-input[type="number"]')[0]</t>
+  </si>
+  <si>
+    <t>genderLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.GENDER.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>genderStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.GENDER.TOOLTIP"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>genderDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label$=",  Gender *"]')</t>
+  </si>
+  <si>
+    <t>maritalStatusLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.MARITAL_STATUS.TO"]')</t>
+  </si>
+  <si>
+    <t>maritalStatusStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.MARITAL_STATUS.TO"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>maritalStatusDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label$=",  Marital Status *"]')</t>
+  </si>
+  <si>
+    <t>educationLevelLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.EDUCATION_LEVEL.T"]')</t>
+  </si>
+  <si>
+    <t>educationLevelStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.EDUCATION_LEVEL.T"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>educationLeveldropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label$=",  Education Level *"]')</t>
+  </si>
+  <si>
+    <t>nationalityLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NATIONALITY.TOOLT"]')</t>
+  </si>
+  <si>
+    <t>nationalityLabelStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NATIONALITY.TOOLT"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>nationalityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label$=",  Nationality *"]')</t>
+  </si>
+  <si>
+    <t>residentialStatusLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_RESIDENTIAL_ST"]')</t>
+  </si>
+  <si>
+    <t>residentialStatusStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_RESIDENTIAL_ST"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>residentialStatusDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label$=",  Residential Status *"]')</t>
+  </si>
+  <si>
+    <t>languageLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.LANGUAGE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>languageStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.LANGUAGE.TOOLTIP"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>languageDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label$=",  Language *"]')</t>
+  </si>
+  <si>
+    <t>noOfDependentsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NO_OF_DEPENDENTS."]')</t>
+  </si>
+  <si>
+    <t>noOfDependentsStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NO_OF_DEPENDENTS."]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>noOfDependentsUpDownKey</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-input[type="number"]&gt;input')[1]</t>
+  </si>
+  <si>
+    <t>noOfDependentsErrorMsg</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-generic-msg="Please enter a value that is n"]')</t>
+  </si>
+  <si>
+    <t>clientCategoryLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Client Category.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>clientCategoryStar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Client Category.TOOLTIP"]&gt;span[color="primary"]')</t>
+  </si>
+  <si>
+    <t>clientCategoryDropDown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label$=",  Client Category *"]')</t>
+  </si>
+  <si>
+    <t>blackListedLabel</t>
+  </si>
+  <si>
+    <t>blackListedToggleBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-toggle[role="switch"]')[0]</t>
+  </si>
+  <si>
+    <t>consentObtainedCreditBureauLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Consent Obtained for Credit Bu"]')</t>
+  </si>
+  <si>
+    <t>consentObtainedCreditBureauDropDown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label="Select,  Consent Obtained for Credit Bureau "]')</t>
+  </si>
+  <si>
+    <t>remarksLabel</t>
+  </si>
+  <si>
+    <t>remarksTextBox</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-input[type="text"]')[8]</t>
+  </si>
+  <si>
+    <t>postClickSavePopup</t>
+  </si>
+  <si>
+    <t>CD_EditButton1</t>
+  </si>
+  <si>
+    <t>activeDeactiveBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-toggle[role="switch"]')[1]</t>
+  </si>
+  <si>
+    <t>invalidAlphabetmessage</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg="VAL.ALPHABET.ALLOWED"]')</t>
+  </si>
+  <si>
+    <t>additonal_customer_info</t>
+  </si>
+  <si>
+    <t>document.getElementById('seg3')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_TYPE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>address_status</t>
+  </si>
+  <si>
+    <t>residential_or_ocupency_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.RES_STATUS.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>communication_address_toggle</t>
+  </si>
+  <si>
+    <t>document.getElementsByTagName('ion-toggle')[0]</t>
+  </si>
+  <si>
+    <t>location_category</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Location Category.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>address_line1</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_1.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>address_line1_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_1.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>address_line2</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_2.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>address_line2_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.COUNTRY_CODE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>province_id</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PROVINCE_ID.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>district_name</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>district_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>zip_code</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ZIPCODE.TOOLTIP"]+ion-input&gt;input')</t>
+  </si>
+  <si>
+    <t>zip_code_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ZIPCODE.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>po_box_number</t>
+  </si>
+  <si>
+    <t>mobile_number_primary</t>
+  </si>
+  <si>
+    <t>duration_on_stay</t>
+  </si>
+  <si>
+    <t>duration_on_stay_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Duration of Stay.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>latitude_details_of_the_address</t>
+  </si>
+  <si>
+    <t>longitude_details_of_the_address</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>occupency_date_mandatory_verification</t>
+  </si>
+  <si>
+    <t>landlord_name</t>
+  </si>
+  <si>
+    <t>landlord_name_Mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_NAME.TOOLTIP"] span')</t>
+  </si>
+  <si>
+    <t>landlord_mobile_number</t>
+  </si>
+  <si>
+    <t>rent_amount</t>
+  </si>
+  <si>
+    <t>frequency_of_rent</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Frequency of rent"]+ion-select')</t>
+  </si>
+  <si>
+    <t>address_line_1_special_character_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="SCR.ADD_LINE_1"]+div ion-badge').textContent</t>
+  </si>
+  <si>
+    <t>addressdetails_status_toggle</t>
+  </si>
+  <si>
+    <t>addressdetails_status</t>
+  </si>
+  <si>
+    <t>Address_Type</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.RES_STATUS.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_2.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>Action_button_AddressDetails</t>
+  </si>
+  <si>
+    <t>document.querySelector("#pr_id_74-table &gt; tbody &gt; tr &gt; td.k-action-col.ng-star-inserted &gt; span &gt; button")</t>
+  </si>
+  <si>
+    <t>Address_Type_mandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_TYPE.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>country_AddressDetails</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.COUNTRY_CODE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>country_AddressDetails_mandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.COUNTRY_CODE.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="City.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PO_BOX.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_MOBILE_NUMBER_"]+ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Duration of Stay.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LAT_ADD.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LONG_ADD.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDMARK.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>occupency_AS_date</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title-tool-tip="SCR.OCCUPANCY_DATE.TOOLTIP"] p-calendar')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_NAME.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.LANDLORD_MOB.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.RENT_AMT.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>neighbourhood</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>address_type_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_TYPE.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>residential_or_ocupency_status_drop</t>
+  </si>
+  <si>
+    <t>communication_address_toggle_verify</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="SCR.MAILINGADD"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>location_category_display</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Location Category.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>address_line1_mandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_1.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>address_line1_display</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_1.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>address_line2_display</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_LINE_2.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>country_text</t>
+  </si>
+  <si>
+    <t>province_id_mandatory</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.PROVINCE_ID.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>province_id_text</t>
+  </si>
+  <si>
+    <t>neighbourhood_display</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.DIST_NAME.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>city_display</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="City.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>zip_code_display</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ZIPCODE.TOOLTIP"]+ion-input')</t>
+  </si>
+  <si>
+    <t>selectRecord1</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Entitle"]')</t>
+  </si>
+  <si>
+    <t>Action_Additionalinfo</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="View"]')</t>
+  </si>
+  <si>
+    <t>search_Additionalinfo</t>
+  </si>
+  <si>
+    <t>frequency_of_rent_display</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Frequency of rent"]')</t>
+  </si>
+  <si>
+    <t>frequency_of_rent_text</t>
+  </si>
+  <si>
+    <t>field_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="SCR.STATUS"] ion-item')</t>
+  </si>
+  <si>
+    <t>field_status_toggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="SCR.STATUS"] ion-item&gt;ion-toggle')</t>
+  </si>
+  <si>
+    <t>Back_button</t>
+  </si>
+  <si>
+    <t>Back_button_verify</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-title[ng-reflect-color="dark"]')</t>
+  </si>
+  <si>
+    <t>Customer Personal Information eye icon</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_STATUS.TOOLTIP"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ADD_STATUS.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>address_Field</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="Occupancy date"]')</t>
   </si>
 </sst>
 </file>
@@ -4331,7 +5136,43 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -5404,13 +6245,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5790,13 +6631,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6579,17 +7420,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A96">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6796,13 +7637,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7264,13 +8105,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8504,23 +9345,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A49">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B151">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8758,10 +9599,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8835,13 +9676,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A37">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B37">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A46">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9271,7 +10112,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A51">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9592,8 +10433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9619,6 +10460,1224 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="186.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>834</v>
+      </c>
+      <c r="B5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>836</v>
+      </c>
+      <c r="B6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>838</v>
+      </c>
+      <c r="B7" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B82" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B84" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B85" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B150" t="s">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A87">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A133">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12723,13 +14782,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A67 A77:A1048576">
-    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B67 B77:B1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A76">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" firstSheet="17" activeTab="20"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" firstSheet="19" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="ALAppDataEntryDocumentDetails" sheetId="20" r:id="rId19"/>
     <sheet name="IjADataEntryIdentifiDetails" sheetId="22" r:id="rId20"/>
     <sheet name="TWAppDataCheckAddressDetails" sheetId="23" r:id="rId21"/>
+    <sheet name="MurApDataEntryAppDetails" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="1665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="1696">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -5029,6 +5030,99 @@
   </si>
   <si>
     <t>document.querySelector('label[ng-reflect-text="Occupancy date"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Product.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Sub Product.TOOLTIP"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>Product1</t>
+  </si>
+  <si>
+    <t>Subproduct1</t>
+  </si>
+  <si>
+    <t>Product1*</t>
+  </si>
+  <si>
+    <t>Subproduct1*</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Product.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Sub Product.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-icon[ng-reflect-name="arrow-back-outline"')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="View Summary"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[label="Eligibility Check"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-label="Submit"]')</t>
+  </si>
+  <si>
+    <t>submitbuton</t>
+  </si>
+  <si>
+    <t>Eligibility Check</t>
+  </si>
+  <si>
+    <t>View Summary</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Status"]')</t>
+  </si>
+  <si>
+    <t>Action confirmation</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-header[role="banner"]')[1].querySelector('ion-button')</t>
+  </si>
+  <si>
+    <t>Action confirmation close</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="SCR.STATUS"]').querySelector('ion-toggle')</t>
+  </si>
+  <si>
+    <t>Status toggle</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-icon="pi pi-search"]')[1]</t>
+  </si>
+  <si>
+    <t>Search button in listView</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[aria-label*="Success"]').innerText</t>
+  </si>
+  <si>
+    <t>Success save popup</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-header[role="banner"]')[1].querySelector('ionic-title')</t>
+  </si>
+  <si>
+    <t>Verify Status</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-tag').firstElementChild.firstElementChild</t>
+  </si>
+  <si>
+    <t>Return button</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-header[role="banner"]')[1].nextSibling.querySelector('ion-card-subtitle')</t>
+  </si>
+  <si>
+    <t>Return Popup</t>
   </si>
 </sst>
 </file>
@@ -5101,7 +5195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5109,11 +5203,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5132,6 +5241,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5945,7 +6057,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6262,7 +6374,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9692,8 +9804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10468,8 +10580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11682,12 +11794,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="109.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="13" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="13" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="13" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11930,7 +12181,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12429,8 +12680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13244,9 +13495,37 @@
         <v>304</v>
       </c>
     </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1671</v>
+      </c>
+    </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
+      <c r="A107" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="7"/>
@@ -13685,8 +13964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14073,8 +14352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" firstSheet="19" activeTab="21"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" firstSheet="19" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,15 @@
     <sheet name="IjADataEntryIdentifiDetails" sheetId="22" r:id="rId20"/>
     <sheet name="TWAppDataCheckAddressDetails" sheetId="23" r:id="rId21"/>
     <sheet name="MurApDataEntryAppDetails" sheetId="24" r:id="rId22"/>
+    <sheet name="MuADCheckLivingExpenses" sheetId="25" r:id="rId23"/>
+    <sheet name="MuADCheckRepaymentMode" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="1696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1777">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -5123,6 +5125,249 @@
   </si>
   <si>
     <t>Return Popup</t>
+  </si>
+  <si>
+    <t>LivingExpense_Elements</t>
+  </si>
+  <si>
+    <t>JSPaths</t>
+  </si>
+  <si>
+    <t>living_expense_tab</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg5"]')</t>
+  </si>
+  <si>
+    <t>living_expense_listView_view_button</t>
+  </si>
+  <si>
+    <t>customer_id_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="customerId"]')</t>
+  </si>
+  <si>
+    <t>customer_name_field_readonlymode_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="customerId"]').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>total_living_expense_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="totalLivingExpense"]')</t>
+  </si>
+  <si>
+    <t>total_living_expense_readonlyMode_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="totalLivingExpense"]').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>Accredited_cost_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="accreditedCosts"]')</t>
+  </si>
+  <si>
+    <t>accredited_cost_readonly_mode_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="accreditedCosts"]').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>is_spouse_employed_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="isSpouseEmployed"]')</t>
+  </si>
+  <si>
+    <t>is_spouse_employed_readonly_mode_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="isSpouseEmployed"]').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>spouse_salary_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Spouse Salary.TOOLTIP"]').parentElement.parentElement.querySelector('p-inputnumber')</t>
+  </si>
+  <si>
+    <t>spouse_salary_readonly_mode_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Spouse Salary.TOOLTIP"]').parentElement.parentElement.querySelector('p-inputnumber').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>living_allowance_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Living Allowance.TOOLTIP"]').parentElement.parentElement.querySelector('p-inputnumber')</t>
+  </si>
+  <si>
+    <t>living_allowance_readonly_mode_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Living Allowance.TOOLTIP"]').parentElement.parentElement.querySelector('p-inputnumber').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>expected_cost_of_living_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="expectedCostOfLiving"]')</t>
+  </si>
+  <si>
+    <t>expected_cost_ofLivng_readonly_mode_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="expectedCostOfLiving"]').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>minimum_living_cost_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="minimumLivingCost"]')</t>
+  </si>
+  <si>
+    <t>minimum_living_cost_readonly_mode_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="minimumLivingCost"]').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>expense_type_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="expenseType"]')</t>
+  </si>
+  <si>
+    <t>expense_type_readonly_mode_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="expenseType"]').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>expense_amount_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="expenseAmount"]')</t>
+  </si>
+  <si>
+    <t>expense_amount_readonly_mode_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="expenseAmount"]').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>status_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"]')</t>
+  </si>
+  <si>
+    <t>status_field_readonly_mode_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"]').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="repayMode"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="custId"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="accountType"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="accountCurrency"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="bankCode"]')</t>
+  </si>
+  <si>
+    <t>RepaymentMode_FieldName</t>
+  </si>
+  <si>
+    <t>RepaymentMode</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg7"]')</t>
+  </si>
+  <si>
+    <t>AccountHolderName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="custId"]')</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="accountType"]')</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="accountNumber"]')</t>
+  </si>
+  <si>
+    <t>AccountCurrency</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="accountCurrency"]')</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="bankCode"]')</t>
+  </si>
+  <si>
+    <t>BankBranch</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="bankBranchCode"]')</t>
+  </si>
+  <si>
+    <t>ECSCODE</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="ecsCode"]')</t>
+  </si>
+  <si>
+    <t>BackIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-arrow-left"]')</t>
+  </si>
+  <si>
+    <t>RepaymentModeField</t>
+  </si>
+  <si>
+    <t>AccountHolderNameField</t>
+  </si>
+  <si>
+    <t>AccountTypeField</t>
+  </si>
+  <si>
+    <t>AccountCurrencyField</t>
+  </si>
+  <si>
+    <t>BankNameField</t>
+  </si>
+  <si>
+    <t>EyeIconInViewlist</t>
+  </si>
+  <si>
+    <t>RepaymentModeButton</t>
+  </si>
+  <si>
+    <t>StatusField</t>
   </si>
 </sst>
 </file>
@@ -9805,7 +10050,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10235,7 +10480,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11798,8 +12043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11926,6 +12171,421 @@
       </c>
       <c r="B15" s="13" t="s">
         <v>1694</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="166.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B16" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B17" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>836</v>
+      </c>
+      <c r="B19" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B20" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>1680</v>
       </c>
     </row>
   </sheetData>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" firstSheet="19" activeTab="23"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="1779">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -5368,6 +5368,12 @@
   </si>
   <si>
     <t>StatusField</t>
+  </si>
+  <si>
+    <t>PleaseFillToastPopUp</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="toast-container"] button+div')</t>
   </si>
 </sst>
 </file>
@@ -10050,7 +10056,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12402,8 +12408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13340,8 +13346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14188,8 +14194,12 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
+      <c r="A108" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1778</v>
+      </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="7"/>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" firstSheet="20" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="MurApDataEntryAppDetails" sheetId="24" r:id="rId22"/>
     <sheet name="MuADCheckLivingExpenses" sheetId="25" r:id="rId23"/>
     <sheet name="MuADCheckRepaymentMode" sheetId="26" r:id="rId24"/>
+    <sheet name="PLNewAppCustomerDetails" sheetId="27" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1979">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -5374,6 +5375,606 @@
   </si>
   <si>
     <t>document.querySelector('div[id="toast-container"] button+div')</t>
+  </si>
+  <si>
+    <t>customer_details_tab</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg2"]')</t>
+  </si>
+  <si>
+    <t>customerDetails_AddButton</t>
+  </si>
+  <si>
+    <t>application_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.APPLICANT.TYPE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>customer_details_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_CUSTOMER_TYPE."]+ion-select')</t>
+  </si>
+  <si>
+    <t>title_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILSISLAMIC_SALUTAT"]+ion-select')</t>
+  </si>
+  <si>
+    <t>first_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstName"] input')</t>
+  </si>
+  <si>
+    <t>first_Name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstName"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>middle_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleName"] input')</t>
+  </si>
+  <si>
+    <t>middle_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleName"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>last_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastName"] input')</t>
+  </si>
+  <si>
+    <t>last_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastName"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>family_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerThirdName"] input')</t>
+  </si>
+  <si>
+    <t>family_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerThirdName"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>first_name_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>first_name_arabic_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstNameInOtherLang"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>middle_name_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>middle_name_arabic_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerMiddleNameInOtherLang"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>last_name_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>last_name_arabic_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerLastNameInOtherLang"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>family_name_arabic_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>family_name_arabic_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerNameInOtherLang"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>date_of_birth_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"] input')</t>
+  </si>
+  <si>
+    <t>date_of_birth_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"]').innerText</t>
+  </si>
+  <si>
+    <t>date_of_birth_field_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[ng-reflect-title="LEAD_DETAILS.DOB"] p-calendar').getAttribute('ng-reflect-date-format')</t>
+  </si>
+  <si>
+    <t>age_input_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]+ion-input input').getAttribute('type')</t>
+  </si>
+  <si>
+    <t>age_get_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]+ion-input input').value</t>
+  </si>
+  <si>
+    <t>age_field_editable_check</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]+ion-input').getAttribute('ng-reflect-readonly')</t>
+  </si>
+  <si>
+    <t>age_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.AGE.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>gender_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.GENDER.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>maritail_status_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.MARITAL_STATUS.TO"]+ion-select')</t>
+  </si>
+  <si>
+    <t>education_level_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.EDUCATION_LEVEL.T"]+ion-select')</t>
+  </si>
+  <si>
+    <t>nationality_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NATIONALITY.TOOLT"]+ion-select')</t>
+  </si>
+  <si>
+    <t>customer_residential_status_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CUSTOMERDETAILS_RESIDENTIAL_ST"]+ion-select')</t>
+  </si>
+  <si>
+    <t>languages_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.LANGUAGE.TOOLTIP"]+ion-select')</t>
+  </si>
+  <si>
+    <t>client_category_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[ng-reflect-name="clientCategory"] ion-select')</t>
+  </si>
+  <si>
+    <t>consent_obtained_for_credit_bureau_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Consent Obtained for Credit Bu"]+ion-select')</t>
+  </si>
+  <si>
+    <t>no_of_dependents_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NO_OF_DEPENDENTS."]+ion-input input')</t>
+  </si>
+  <si>
+    <t>no_of_dependents_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.NO_OF_DEPENDENTS."]').innerText</t>
+  </si>
+  <si>
+    <t>remarks_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"] ion-input input')</t>
+  </si>
+  <si>
+    <t>remarks_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"] ion-label').innerText</t>
+  </si>
+  <si>
+    <t>status_toggle_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="recStatus"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>get_record_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="recStatus"] ion-toggle').getAttribute('aria-checked')</t>
+  </si>
+  <si>
+    <t>list_view_record_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('td[ng-reflect-ng-switch="badge"] span&gt;span').innerText</t>
+  </si>
+  <si>
+    <t>blacklisted_toggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="SCR.BLACKLISTED"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>blacklisted_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Blacklisted"]').innerText</t>
+  </si>
+  <si>
+    <t>date_highlighted_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('span[tabindex="0"]')</t>
+  </si>
+  <si>
+    <t>first_name_input_field_level_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="customerFirstName"]+div ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_edit_button</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_first_name</t>
+  </si>
+  <si>
+    <t>document.querySelector('td[ng-reflect-ng-switch="string"] p-celleditor[class="p-element ng-star-inserted"] span').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_search_result</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-grid p-paginator[ng-reflect-rows="5"] span[class="p-paginator-current ng-star-inserted"]').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_search_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-search"]')</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_search_input</t>
+  </si>
+  <si>
+    <t>customer_details_export_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdown[placeholder="Export"] span[class$= "p-placeholder ng-star-inserted"]')</t>
+  </si>
+  <si>
+    <t>customer_details_excel_export_option</t>
+  </si>
+  <si>
+    <t>customer_details_pdf_export_option</t>
+  </si>
+  <si>
+    <t>customer_details_back_button_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-title[class$="ion-color-dark md title-default hydrated"]').innerText</t>
+  </si>
+  <si>
+    <t>customer_details_list_view_record</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-table[ng-reflect-data-key="id"] thead[class="p-datatable-thead"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector('tbody td[ng-reflect-ng-switch="string"]')</t>
+  </si>
+  <si>
+    <t>no_of_childer_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnNum1"] input')</t>
+  </si>
+  <si>
+    <t>no_of_children_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnNum1"]').innerText</t>
+  </si>
+  <si>
+    <t>salutation_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="salutation"] ion-select')</t>
+  </si>
+  <si>
+    <t>salutation_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="salutation"]').innerText</t>
+  </si>
+  <si>
+    <t>father_first_name_Input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar1"] input')</t>
+  </si>
+  <si>
+    <t>father_first_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar1"]').innerText</t>
+  </si>
+  <si>
+    <t>father_middle_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar2"] input')</t>
+  </si>
+  <si>
+    <t>father_middle_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar2"]').innerText</t>
+  </si>
+  <si>
+    <t>father_last_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar3"] input')</t>
+  </si>
+  <si>
+    <t>father_last_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar3"]').innerText</t>
+  </si>
+  <si>
+    <t>spouse_first_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar4"] input')</t>
+  </si>
+  <si>
+    <t>spouse_first_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar4"]').innerText</t>
+  </si>
+  <si>
+    <t>spouse_middle_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar5"] input')</t>
+  </si>
+  <si>
+    <t>spouse_middle_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar5"]').innerText</t>
+  </si>
+  <si>
+    <t>spouse_last_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar6"] input')</t>
+  </si>
+  <si>
+    <t>spouse_last_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="extnChar6"]').innerText</t>
+  </si>
+  <si>
+    <t>spouse_status_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="dynamicNumericField1"] ion-select')</t>
+  </si>
+  <si>
+    <t>spouse_status_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="dynamicNumericField1"]').innerText</t>
+  </si>
+  <si>
+    <t>gender_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.GENDER.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>maritail_status_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.MARITAL_STATUS.TO"]').innerText</t>
+  </si>
+  <si>
+    <t>educational_level_mandatory_verificatiion</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="LEAD_DETAILS.EDUCATION_LEVEL.T"]').innerText</t>
+  </si>
+  <si>
+    <t>category_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="ethnicType"] ion-select')</t>
+  </si>
+  <si>
+    <t>relegion_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="religion"] ion-select')</t>
+  </si>
+  <si>
+    <t>mothers_maiden_name_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mothersName"] input')</t>
+  </si>
+  <si>
+    <t>mothers_maiden_name_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mothersName"]').innerText</t>
+  </si>
+  <si>
+    <t>type_of_residency_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="residenceType"] ion-select')</t>
+  </si>
+  <si>
+    <t>industry_segmentation_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="clientCategory"] ion-select')</t>
+  </si>
+  <si>
+    <t>is_income_considered_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="isIncomeConsidered"] ion-select')</t>
+  </si>
+  <si>
+    <t>customer_profile_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="dynamicCharField1"] ion-select')</t>
+  </si>
+  <si>
+    <t>relationship_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="relationship"] ion-select')</t>
+  </si>
+  <si>
+    <t>isPoliticallyExposed_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="isPoliticallyExposed"] ion-select')</t>
+  </si>
+  <si>
+    <t>remarks_field_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"] textarea')</t>
+  </si>
+  <si>
+    <t>remarks_field_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="remarks"]').innerText</t>
+  </si>
+  <si>
+    <t>existing_customer_flag</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="existingCustomerFlag"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>existing_customer_flag_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="existingCustomerFlag"]').innerText</t>
+  </si>
+  <si>
+    <t>is_blacklisted_flg</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[id="isBlacklisted"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="phone1"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="phone1"]').innerText</t>
+  </si>
+  <si>
+    <t>mobile1_number_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile1"] input')</t>
+  </si>
+  <si>
+    <t>mobileNumber_primary_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile1"]').innerText</t>
+  </si>
+  <si>
+    <t>mobile_number_secondary_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile2"] input')</t>
+  </si>
+  <si>
+    <t>mobile_number_secondory_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="mobile2"]').innerText</t>
+  </si>
+  <si>
+    <t>email_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="email"] input')</t>
+  </si>
+  <si>
+    <t>email_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="email"]').innerText</t>
+  </si>
+  <si>
+    <t>prefered_contact_method_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="preferredContactMethod"] ion-select')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="preferredContactTime"] input')</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[id="preferredContactTime"]').innerText</t>
   </si>
 </sst>
 </file>
@@ -12049,9 +12650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12599,6 +13198,881 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B53" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B107" t="s">
+        <v>762</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B28"/>
@@ -13346,7 +14820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>

--- a/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
+++ b/Gowtham_ULS_New/TestData/IjaraJSPaths.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" firstSheet="20" activeTab="24"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="1983">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -3868,9 +3868,6 @@
     <t>phone_number_field_validation</t>
   </si>
   <si>
-    <t>document.querySelector('digital-text-box[ng-reflect-title="CONTACT_DETAILS_PHONE_NUMBER"]+div ion-badge').innerText</t>
-  </si>
-  <si>
     <t>prefered_time_for_contact_field_validation</t>
   </si>
   <si>
@@ -5975,6 +5972,21 @@
   </si>
   <si>
     <t>document.querySelector('digital-text-box[id="preferredContactTime"]').innerText</t>
+  </si>
+  <si>
+    <t>document.querySelector("ion-cards").querySelector("button")</t>
+  </si>
+  <si>
+    <t>SavetextBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="sourceEmployeeId"]').firstChild.firstChild</t>
+  </si>
+  <si>
+    <t>SourcingStaffText</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CONTACT_DETAILS_PHONE_NUMBER"]').querySelector('input')</t>
   </si>
 </sst>
 </file>
@@ -6100,7 +6112,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -7209,13 +7245,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="31" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7595,13 +7631,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8384,17 +8420,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A96">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8406,7 +8442,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8601,13 +8637,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9069,13 +9105,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10309,23 +10345,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A49">
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B151">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10335,8 +10371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10446,60 +10482,60 @@
         <v>1275</v>
       </c>
       <c r="B13" t="s">
-        <v>1276</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B14" t="s">
         <v>1277</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B15" t="s">
         <v>1279</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B16" t="s">
         <v>1281</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B17" t="s">
         <v>1283</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B18" t="s">
         <v>1285</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B19" t="s">
         <v>1287</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B20" t="s">
         <v>448</v>
@@ -10507,7 +10543,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B21" t="s">
         <v>340</v>
@@ -10515,39 +10551,39 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B22" t="s">
         <v>1291</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B23" t="s">
         <v>1293</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B24" t="s">
         <v>1295</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B25" t="s">
         <v>1297</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B26" t="s">
         <v>372</v>
@@ -10555,18 +10591,18 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B27" t="s">
         <v>1300</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1301</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10599,7 +10635,7 @@
         <v>596</v>
       </c>
       <c r="B2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -10640,13 +10676,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A37">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B37">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A46">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10676,15 +10712,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B2" t="s">
         <v>1297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1298</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B3" t="s">
         <v>372</v>
@@ -10692,135 +10728,135 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B4" t="s">
         <v>1303</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B5" t="s">
         <v>1305</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B6" t="s">
         <v>1309</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B7" t="s">
         <v>1311</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B8" t="s">
         <v>1313</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B9" t="s">
         <v>1315</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B10" t="s">
         <v>1317</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B11" t="s">
         <v>1319</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B12" t="s">
         <v>1321</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B13" t="s">
         <v>1323</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B14" t="s">
         <v>1325</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B15" t="s">
         <v>1327</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B16" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B17" t="s">
         <v>1307</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B18" t="s">
         <v>1330</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B19" t="s">
         <v>1332</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B20" t="s">
         <v>682</v>
@@ -10828,63 +10864,63 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B21" t="s">
         <v>1335</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B22" t="s">
         <v>1337</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B23" t="s">
         <v>1339</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B24" t="s">
         <v>1341</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B25" t="s">
         <v>1343</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B26" t="s">
         <v>1345</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1346</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B27" t="s">
         <v>1347</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B28" t="s">
         <v>302</v>
@@ -10892,31 +10928,31 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B29" t="s">
         <v>1350</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B30" t="s">
         <v>1352</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B31" t="s">
         <v>1354</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B32" t="s">
         <v>448</v>
@@ -10924,15 +10960,15 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B33" t="s">
         <v>1291</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B34" t="s">
         <v>762</v>
@@ -10940,7 +10976,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="B35" t="s">
         <v>340</v>
@@ -10948,135 +10984,135 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B36" t="s">
         <v>1293</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B37" t="s">
         <v>1295</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B38" t="s">
         <v>1285</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B39" t="s">
         <v>1287</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B40" t="s">
         <v>1357</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B41" t="s">
         <v>1359</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B42" t="s">
         <v>1361</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B43" t="s">
         <v>1363</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B44" t="s">
         <v>1365</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B45" t="s">
         <v>1367</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B46" t="s">
         <v>1369</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B47" t="s">
         <v>1371</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B48" t="s">
         <v>1373</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B49" t="s">
         <v>1375</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B50" t="s">
         <v>1377</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B51" t="s">
         <v>1379</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1380</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A51">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11084,10 +11120,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A11:B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11106,26 +11142,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11133,7 +11169,7 @@
         <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11141,7 +11177,7 @@
         <v>231</v>
       </c>
       <c r="B6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11157,12 +11193,12 @@
         <v>927</v>
       </c>
       <c r="B8" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B9" t="s">
         <v>875</v>
@@ -11170,7 +11206,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B10" t="s">
         <v>118</v>
@@ -11178,7 +11214,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B11" t="s">
         <v>682</v>
@@ -11186,21 +11222,32 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B12" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B13" t="s">
-        <v>1296</v>
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1352</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11417,10 +11464,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B2" t="s">
         <v>1395</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1396</v>
       </c>
     </row>
   </sheetData>
@@ -11500,71 +11547,71 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B8" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B9" t="s">
         <v>1398</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B10" t="s">
         <v>1400</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B11" t="s">
         <v>1402</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B12" t="s">
         <v>1404</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B13" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B14" t="s">
         <v>1407</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B15" t="s">
         <v>1409</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B16" t="s">
         <v>118</v>
@@ -11572,7 +11619,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B17" t="s">
         <v>453</v>
@@ -11580,7 +11627,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B18" t="s">
         <v>534</v>
@@ -11588,511 +11635,511 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B19" t="s">
         <v>1414</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B20" t="s">
         <v>1416</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B21" t="s">
         <v>1418</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B22" t="s">
         <v>1420</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B23" t="s">
         <v>1422</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B24" t="s">
         <v>1424</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B25" t="s">
         <v>1426</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B26" t="s">
         <v>1428</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B27" t="s">
         <v>1430</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B28" t="s">
         <v>1432</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B29" t="s">
         <v>1434</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B30" t="s">
         <v>1436</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B31" t="s">
         <v>1438</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B32" t="s">
         <v>1440</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B33" t="s">
         <v>1442</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B34" t="s">
         <v>1444</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B35" t="s">
         <v>1446</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B36" t="s">
         <v>1448</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B37" t="s">
         <v>1450</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B38" t="s">
         <v>1452</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B39" t="s">
         <v>1454</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B40" t="s">
         <v>1456</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B41" t="s">
         <v>1458</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B42" t="s">
         <v>1460</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B43" t="s">
         <v>1462</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B44" t="s">
         <v>1464</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B45" t="s">
         <v>1466</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B46" t="s">
         <v>1468</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B47" t="s">
         <v>1470</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B48" t="s">
         <v>1472</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B49" t="s">
         <v>1474</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B50" t="s">
         <v>1476</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B51" t="s">
         <v>1478</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B52" t="s">
         <v>1480</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B53" t="s">
         <v>1482</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B54" t="s">
         <v>1484</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B55" t="s">
         <v>1486</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B56" t="s">
         <v>1488</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B57" t="s">
         <v>1490</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B58" t="s">
         <v>1492</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B59" t="s">
         <v>1494</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B60" t="s">
         <v>1496</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B61" t="s">
         <v>1498</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B62" t="s">
         <v>1500</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B63" t="s">
         <v>1502</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B64" t="s">
         <v>1504</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B65" t="s">
         <v>1506</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B66" t="s">
         <v>1508</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B67" t="s">
         <v>1510</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B68" t="s">
         <v>1512</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B69" t="s">
         <v>1514</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B70" t="s">
         <v>1516</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B71" t="s">
         <v>1518</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B72" t="s">
         <v>1520</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B73" t="s">
         <v>1522</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B74" t="s">
         <v>1524</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B75" t="s">
         <v>1526</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B76" t="s">
         <v>1528</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B77" t="s">
         <v>1530</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B78" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B79" t="s">
         <v>1533</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B80" t="s">
         <v>1535</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B81" t="s">
         <v>1537</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B82" t="s">
         <v>969</v>
@@ -12100,15 +12147,15 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B83" t="s">
         <v>1540</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B84" t="s">
         <v>340</v>
@@ -12116,7 +12163,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B85" t="s">
         <v>983</v>
@@ -12124,511 +12171,511 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B86" t="s">
         <v>1544</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B87" t="s">
         <v>1546</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B89" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B90" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B91" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B92" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B93" t="s">
         <v>1554</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B94" t="s">
         <v>1556</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B95" t="s">
         <v>1558</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B96" t="s">
         <v>1562</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B97" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B98" t="s">
         <v>1560</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B99" t="s">
         <v>1600</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B100" t="s">
         <v>1602</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B101" t="s">
         <v>1604</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B102" t="s">
         <v>1606</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B103" t="s">
         <v>1566</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B104" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B105" t="s">
         <v>1569</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B106" t="s">
         <v>1571</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B107" t="s">
         <v>1573</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B108" t="s">
         <v>1575</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B109" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B110" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B111" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B112" t="s">
         <v>1580</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B113" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B114" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B115" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B116" t="s">
         <v>1615</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1616</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B117" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B118" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B119" t="s">
         <v>1587</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B120" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B121" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B122" t="s">
         <v>1591</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B123" t="s">
         <v>1593</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B124" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B125" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B126" t="s">
         <v>1620</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B127" t="s">
         <v>1622</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B128" t="s">
         <v>1548</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B129" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B130" t="s">
         <v>1625</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B131" t="s">
         <v>1627</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B132" t="s">
         <v>1629</v>
-      </c>
-      <c r="B132" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B133" t="s">
         <v>1631</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1632</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B134" t="s">
         <v>1633</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1634</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B135" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B136" t="s">
         <v>1636</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B137" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B138" t="s">
         <v>1639</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B139" t="s">
         <v>1641</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B140" t="s">
         <v>1643</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B141" t="s">
         <v>1645</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1646</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B142" t="s">
         <v>1647</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B143" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B144" t="s">
         <v>1650</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B145" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B146" t="s">
         <v>1653</v>
-      </c>
-      <c r="B146" t="s">
-        <v>1654</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B147" t="s">
         <v>1655</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B148" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B149" t="s">
         <v>1658</v>
-      </c>
-      <c r="B149" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B150" t="s">
         <v>540</v>
@@ -12636,11 +12683,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A87">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A133">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12676,26 +12723,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="13" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="13" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -12703,7 +12750,7 @@
         <v>316</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -12711,71 +12758,71 @@
         <v>219</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="13" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="13" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="13" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="13" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="13" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>1691</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="14" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="14" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
     </row>
   </sheetData>
@@ -12788,7 +12835,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12800,202 +12847,202 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1696</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B2" t="s">
         <v>1698</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B4" t="s">
         <v>1701</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B5" t="s">
         <v>1703</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B6" t="s">
         <v>1705</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B7" t="s">
         <v>1707</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B8" t="s">
         <v>1709</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1710</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B9" t="s">
         <v>1711</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B10" t="s">
         <v>1713</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B11" t="s">
         <v>1715</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B12" t="s">
         <v>1717</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B13" t="s">
         <v>1719</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B14" t="s">
         <v>1721</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B15" t="s">
         <v>1723</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B16" t="s">
         <v>1725</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B17" t="s">
         <v>1727</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B18" t="s">
         <v>1729</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1730</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B19" t="s">
         <v>1731</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B20" t="s">
         <v>1733</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1734</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B21" t="s">
         <v>1735</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1736</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B22" t="s">
         <v>1737</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B23" t="s">
         <v>1739</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1740</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B24" t="s">
         <v>1741</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B25" t="s">
         <v>1743</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1744</v>
       </c>
     </row>
   </sheetData>
@@ -13019,7 +13066,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -13027,114 +13074,114 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B2" t="s">
         <v>1751</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B3" t="s">
         <v>1753</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B4" t="s">
         <v>1755</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B5" t="s">
         <v>1757</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1758</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B6" t="s">
         <v>1759</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B7" t="s">
         <v>1761</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B8" t="s">
         <v>1763</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B9" t="s">
         <v>1765</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B10" t="s">
         <v>1767</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B11" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B12" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B13" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B14" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B15" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -13147,7 +13194,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B17" t="s">
         <v>928</v>
@@ -13155,10 +13202,10 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B18" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -13171,7 +13218,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B20" t="s">
         <v>682</v>
@@ -13179,18 +13226,18 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B21" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="13" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
   </sheetData>
@@ -13202,8 +13249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13222,15 +13269,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B2" t="s">
         <v>1779</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B3" t="s">
         <v>692</v>
@@ -13238,367 +13285,367 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B4" t="s">
         <v>1782</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B5" t="s">
         <v>1784</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B6" t="s">
         <v>1786</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1787</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B7" t="s">
         <v>1788</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1789</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B8" t="s">
         <v>1790</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1791</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B9" t="s">
         <v>1792</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B10" t="s">
         <v>1794</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1795</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B11" t="s">
         <v>1796</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B12" t="s">
         <v>1798</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B13" t="s">
         <v>1800</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1801</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B14" t="s">
         <v>1802</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B15" t="s">
         <v>1804</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B16" t="s">
         <v>1806</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B17" t="s">
         <v>1808</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B18" t="s">
         <v>1810</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B19" t="s">
         <v>1812</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B20" t="s">
         <v>1814</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B21" t="s">
         <v>1816</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B22" t="s">
         <v>1818</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B23" t="s">
         <v>1820</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B24" t="s">
         <v>1822</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B25" t="s">
         <v>1824</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B26" t="s">
         <v>1826</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1827</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B27" t="s">
         <v>1828</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1829</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B28" t="s">
         <v>1830</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1831</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B29" t="s">
         <v>1832</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B30" t="s">
         <v>1834</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1835</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B31" t="s">
         <v>1836</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B32" t="s">
         <v>1838</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B33" t="s">
         <v>1840</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B34" t="s">
         <v>1842</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B35" t="s">
         <v>1844</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B36" t="s">
         <v>1846</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1847</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B37" t="s">
         <v>1848</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B38" t="s">
         <v>1850</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1851</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B39" t="s">
         <v>1852</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B40" t="s">
         <v>1854</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B41" t="s">
         <v>1856</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B42" t="s">
         <v>1858</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B43" t="s">
         <v>1860</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B44" t="s">
         <v>1862</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1863</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B45" t="s">
         <v>1864</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B46" t="s">
         <v>1866</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1867</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B47" t="s">
         <v>1868</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B48" t="s">
         <v>1870</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1871</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B49" t="s">
         <v>372</v>
@@ -13606,31 +13653,31 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B50" t="s">
         <v>1873</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B51" t="s">
         <v>1875</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1876</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B52" t="s">
         <v>1877</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1878</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B53" t="s">
         <v>682</v>
@@ -13638,338 +13685,338 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B54" t="s">
         <v>1880</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1881</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B55" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B56" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B57" t="s">
         <v>1884</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1885</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B58" t="s">
         <v>1886</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1887</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B59" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B60" t="s">
         <v>1889</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B61" t="s">
         <v>1891</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B62" t="s">
         <v>1893</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1894</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B63" t="s">
         <v>1895</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1896</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B64" t="s">
         <v>1897</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1898</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B65" t="s">
         <v>1899</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1900</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B66" t="s">
         <v>1901</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1902</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B67" t="s">
         <v>1903</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1904</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B68" t="s">
         <v>1905</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1906</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B69" t="s">
         <v>1907</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1908</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B70" t="s">
         <v>1909</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B71" t="s">
         <v>1911</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1912</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B72" t="s">
         <v>1913</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1914</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B73" t="s">
         <v>1915</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1916</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B74" t="s">
         <v>1917</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1918</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B75" t="s">
         <v>1919</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1920</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B76" t="s">
         <v>1921</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1922</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B77" t="s">
         <v>1923</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1924</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B78" t="s">
         <v>1925</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1926</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B79" t="s">
         <v>1927</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B80" t="s">
         <v>1929</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1930</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B81" t="s">
         <v>1931</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1932</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B82" t="s">
         <v>1933</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1934</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B83" t="s">
         <v>1935</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1936</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B84" t="s">
         <v>1937</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1938</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B85" t="s">
         <v>1939</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1940</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B86" t="s">
         <v>1941</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1942</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B87" t="s">
         <v>1943</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B88" t="s">
         <v>1945</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B89" t="s">
         <v>1947</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B90" t="s">
         <v>1949</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B91" t="s">
         <v>1951</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1952</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B92" t="s">
         <v>1953</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B93" t="s">
         <v>1955</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1956</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B94" t="s">
         <v>1957</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B95" t="s">
         <v>1959</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1960</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -13977,7 +14024,7 @@
         <v>1255</v>
       </c>
       <c r="B96" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -13985,63 +14032,63 @@
         <v>1257</v>
       </c>
       <c r="B97" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B98" t="s">
         <v>1963</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1964</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B99" t="s">
         <v>1965</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B100" t="s">
         <v>1967</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1968</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B101" t="s">
         <v>1969</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B102" t="s">
         <v>1971</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1972</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B103" t="s">
         <v>1973</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1974</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B104" t="s">
         <v>1975</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1976</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -14049,7 +14096,7 @@
         <v>1263</v>
       </c>
       <c r="B105" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -14057,12 +14104,12 @@
         <v>1265</v>
       </c>
       <c r="B106" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B107" t="s">
         <v>762</v>
@@ -14078,7 +14125,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14818,10 +14865,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15056,632 +15103,648 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>1981</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="B34" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B49" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B58" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B60" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B61" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B63" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>235</v>
+      </c>
+      <c r="B66" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>237</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="3" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="6" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>242</v>
-      </c>
-      <c r="B70" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>246</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="B72" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>250</v>
-      </c>
-      <c r="B74" t="s">
-        <v>251</v>
+        <v>248</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B76" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="B77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="B84" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B85" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B86" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B87" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B88" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B90" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B91" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B92" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B93" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B97" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B98" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="B100" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B101" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B102" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>303</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>1667</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="B105" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B106" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B107" t="s">
         <v>1670</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B109" t="s">
         <v>1777</v>
       </c>
-      <c r="B108" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
+      <c r="A110" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1978</v>
+      </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="7"/>
@@ -15755,7 +15818,14 @@
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
     </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A69">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16496,8 +16566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17205,13 +17275,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A67 A77:A1048576">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B67 B77:B1048576">
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A76">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
